--- a/Projecao_RCL_cen323.xlsx
+++ b/Projecao_RCL_cen323.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="70">
   <si>
     <t>CAMPO</t>
   </si>
@@ -242,7 +242,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -309,8 +309,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -363,6 +369,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002240"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -437,7 +449,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -541,6 +553,31 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -556,21 +593,6 @@
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Moeda" xfId="3" builtinId="4"/>
@@ -578,7 +600,22 @@
     <cellStyle name="Porcentagem" xfId="2" builtinId="5"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFC00000"/>
@@ -1024,6 +1061,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="97"/>
+                <c:pt idx="53" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>39763284832.35144</c:v>
+                </c:pt>
                 <c:pt idx="54" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>40338670461.163086</c:v>
                 </c:pt>
@@ -1491,6 +1531,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="97"/>
+                <c:pt idx="53" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>39447296793.788559</c:v>
+                </c:pt>
                 <c:pt idx="54" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
                   <c:v>39727336503.276917</c:v>
                 </c:pt>
@@ -1662,134 +1705,134 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="97"/>
-                <c:pt idx="54" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>39831467508</c:v>
-                </c:pt>
-                <c:pt idx="55" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>40606858203</c:v>
-                </c:pt>
-                <c:pt idx="56" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>41194996168</c:v>
-                </c:pt>
-                <c:pt idx="57" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>41891160324</c:v>
-                </c:pt>
-                <c:pt idx="58" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>42454654234</c:v>
-                </c:pt>
-                <c:pt idx="59" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>42844116189</c:v>
-                </c:pt>
-                <c:pt idx="60" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>43221742043</c:v>
-                </c:pt>
-                <c:pt idx="61" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>43780552981</c:v>
-                </c:pt>
-                <c:pt idx="62" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>44360666528</c:v>
-                </c:pt>
-                <c:pt idx="63" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>45032625391</c:v>
-                </c:pt>
-                <c:pt idx="64" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>45881644797</c:v>
-                </c:pt>
-                <c:pt idx="65" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>46562101715</c:v>
-                </c:pt>
-                <c:pt idx="66" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>47202885102</c:v>
-                </c:pt>
-                <c:pt idx="67" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>47791117074</c:v>
-                </c:pt>
-                <c:pt idx="68" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>48316719112</c:v>
-                </c:pt>
-                <c:pt idx="69" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>48754162536</c:v>
-                </c:pt>
-                <c:pt idx="70" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>49241666183</c:v>
-                </c:pt>
-                <c:pt idx="71" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>49752794041</c:v>
-                </c:pt>
-                <c:pt idx="72" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>50223465429</c:v>
-                </c:pt>
-                <c:pt idx="73" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>50728942580</c:v>
-                </c:pt>
-                <c:pt idx="74" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>51205790596</c:v>
-                </c:pt>
-                <c:pt idx="75" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>51659524783</c:v>
-                </c:pt>
-                <c:pt idx="76" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>52147288340</c:v>
-                </c:pt>
-                <c:pt idx="77" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>52644815383</c:v>
-                </c:pt>
-                <c:pt idx="78" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>53073901014</c:v>
-                </c:pt>
-                <c:pt idx="79" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>53507713164</c:v>
-                </c:pt>
-                <c:pt idx="80" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>54035275429</c:v>
-                </c:pt>
-                <c:pt idx="81" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>54574932308</c:v>
-                </c:pt>
-                <c:pt idx="82" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>55134918360</c:v>
-                </c:pt>
-                <c:pt idx="83" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>55749451814</c:v>
-                </c:pt>
-                <c:pt idx="84" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>56398034608</c:v>
-                </c:pt>
-                <c:pt idx="85" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>56959619126</c:v>
-                </c:pt>
-                <c:pt idx="86" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>57535801028</c:v>
-                </c:pt>
-                <c:pt idx="87" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>58096282488</c:v>
-                </c:pt>
-                <c:pt idx="88" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>58572340959</c:v>
-                </c:pt>
-                <c:pt idx="89" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>59111479128</c:v>
-                </c:pt>
-                <c:pt idx="90" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>59702244464</c:v>
-                </c:pt>
-                <c:pt idx="91" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>60312275228</c:v>
-                </c:pt>
-                <c:pt idx="92" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>60892225939</c:v>
-                </c:pt>
-                <c:pt idx="93" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>61503635191</c:v>
-                </c:pt>
-                <c:pt idx="94" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>62088435913</c:v>
-                </c:pt>
-                <c:pt idx="95" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>62634980889</c:v>
-                </c:pt>
-                <c:pt idx="96" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>63180714249</c:v>
+                <c:pt idx="54">
+                  <c:v>39251981060</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>39824349576</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>40487167844</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>40995436210</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>41322255022</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>41775112984</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42422820304</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42921330590</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>43515131607</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44278384188</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44955052751</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>45696406904</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>46305349950</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>46802455070</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>47201389498</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>47652697345</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>48123692891</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>48547052760</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>49018086315</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>49455213140</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>49868628573</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>50322855938</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>50780990094</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>51158284768</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>51538083603</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>52021061756</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>52511062101</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>53028606463</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>53609954291</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>54172395164</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>54627032549</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>55169532280</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>55692135745</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>56122798923</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>56591596444</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>57090197983</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>57633855570</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>58159528227</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>58726827670</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>59260080830</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>59749557154</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>60276273097</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>60857698341</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1825,133 +1868,133 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="97"/>
                 <c:pt idx="54" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>39135179738</c:v>
+                  <c:v>38574172583</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>39301982312</c:v>
+                  <c:v>38557567446</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>39379922862</c:v>
+                  <c:v>38723921035</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>39586780243</c:v>
+                  <c:v>38754633839</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>39661857913</c:v>
+                  <c:v>38603786935</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>39555787867</c:v>
+                  <c:v>38571283456</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>39426966161</c:v>
+                  <c:v>38722357648</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>39466465052</c:v>
+                  <c:v>38711148487</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>39513381103</c:v>
+                  <c:v>38781209773</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>39637741811</c:v>
+                  <c:v>39006246522</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>39924538615</c:v>
+                  <c:v>39130041493</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>40028098922</c:v>
+                  <c:v>39303845477</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>40241792155</c:v>
+                  <c:v>39492999449</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>40459756250</c:v>
+                  <c:v>39625384002</c:v>
                 </c:pt>
                 <c:pt idx="68" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>40615412803</c:v>
+                  <c:v>39660268600</c:v>
                 </c:pt>
                 <c:pt idx="69" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>40682775004</c:v>
+                  <c:v>39747708562</c:v>
                 </c:pt>
                 <c:pt idx="70" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>40799683914</c:v>
+                  <c:v>39854615474</c:v>
                 </c:pt>
                 <c:pt idx="71" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>40939389342</c:v>
+                  <c:v>39913331204</c:v>
                 </c:pt>
                 <c:pt idx="72" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>41037547423</c:v>
+                  <c:v>40018884695</c:v>
                 </c:pt>
                 <c:pt idx="73" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>41169198549</c:v>
+                  <c:v>40089459060</c:v>
                 </c:pt>
                 <c:pt idx="74" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>41270719832</c:v>
+                  <c:v>40135049098</c:v>
                 </c:pt>
                 <c:pt idx="75" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>41347466568</c:v>
+                  <c:v>40220007230</c:v>
                 </c:pt>
                 <c:pt idx="76" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>41456445236</c:v>
+                  <c:v>40307282069</c:v>
                 </c:pt>
                 <c:pt idx="77" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>41573272775</c:v>
+                  <c:v>40312001757</c:v>
                 </c:pt>
                 <c:pt idx="78" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>41615992746</c:v>
+                  <c:v>40317912397</c:v>
                 </c:pt>
                 <c:pt idx="79" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>41659392784</c:v>
+                  <c:v>40425353112</c:v>
                 </c:pt>
                 <c:pt idx="80" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>41793806277</c:v>
+                  <c:v>40537898130</c:v>
                 </c:pt>
                 <c:pt idx="81" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>41937538524</c:v>
+                  <c:v>40675995753</c:v>
                 </c:pt>
                 <c:pt idx="82" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>42098791402</c:v>
+                  <c:v>40875841576</c:v>
                 </c:pt>
                 <c:pt idx="83" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>42311756082</c:v>
+                  <c:v>41054669706</c:v>
                 </c:pt>
                 <c:pt idx="84" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>42555912320</c:v>
+                  <c:v>41123535409</c:v>
                 </c:pt>
                 <c:pt idx="85" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>42710194544</c:v>
+                  <c:v>41278062667</c:v>
                 </c:pt>
                 <c:pt idx="86" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>42876184139</c:v>
+                  <c:v>41410456565</c:v>
                 </c:pt>
                 <c:pt idx="87" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>43023572217</c:v>
+                  <c:v>41448641655</c:v>
                 </c:pt>
                 <c:pt idx="88" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>43083627972</c:v>
+                  <c:v>41522665429</c:v>
                 </c:pt>
                 <c:pt idx="89" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>43203848291</c:v>
+                  <c:v>41624174210</c:v>
                 </c:pt>
                 <c:pt idx="90" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>43335956557</c:v>
+                  <c:v>41726848014</c:v>
                 </c:pt>
                 <c:pt idx="91" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>43463816713</c:v>
+                  <c:v>41786073249</c:v>
                 </c:pt>
                 <c:pt idx="92" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>43552275172</c:v>
+                  <c:v>41877111461</c:v>
                 </c:pt>
                 <c:pt idx="93" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>43663110369</c:v>
+                  <c:v>41924550629</c:v>
                 </c:pt>
                 <c:pt idx="94" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>43738482635</c:v>
+                  <c:v>41918908439</c:v>
                 </c:pt>
                 <c:pt idx="95" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>43766960272</c:v>
+                  <c:v>41941437189</c:v>
                 </c:pt>
                 <c:pt idx="96" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>43786191644</c:v>
+                  <c:v>42009830493</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1965,8 +2008,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="983847392"/>
-        <c:axId val="983849744"/>
+        <c:axId val="725629144"/>
+        <c:axId val="725629928"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2462,9 +2505,6 @@
                 <c:pt idx="52">
                   <c:v>39045234936.590004</c:v>
                 </c:pt>
-                <c:pt idx="53" formatCode="#,##0.00">
-                  <c:v>39045234937</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2807,6 +2847,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="97"/>
+                <c:pt idx="53" formatCode="#,##0.00">
+                  <c:v>39605290813.07</c:v>
+                </c:pt>
                 <c:pt idx="54" formatCode="#,##0.00">
                   <c:v>40033003482.220001</c:v>
                 </c:pt>
@@ -2979,133 +3022,133 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="97"/>
                 <c:pt idx="54" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>39483323623</c:v>
+                  <c:v>38913076822</c:v>
                 </c:pt>
                 <c:pt idx="55" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>39954420258</c:v>
+                  <c:v>39190958511</c:v>
                 </c:pt>
                 <c:pt idx="56" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>40287459515</c:v>
+                  <c:v>39605544440</c:v>
                 </c:pt>
                 <c:pt idx="57" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>40738970283</c:v>
+                  <c:v>39875035025</c:v>
                 </c:pt>
                 <c:pt idx="58" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>41058256074</c:v>
+                  <c:v>39963020979</c:v>
                 </c:pt>
                 <c:pt idx="59" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>41199952028</c:v>
+                  <c:v>40173198220</c:v>
                 </c:pt>
                 <c:pt idx="60" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>41324354102</c:v>
+                  <c:v>40572588976</c:v>
                 </c:pt>
                 <c:pt idx="61" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>41623509016</c:v>
+                  <c:v>40816239538</c:v>
                 </c:pt>
                 <c:pt idx="62" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>41937023816</c:v>
+                  <c:v>41148170690</c:v>
                 </c:pt>
                 <c:pt idx="63" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>42335183601</c:v>
+                  <c:v>41642315355</c:v>
                 </c:pt>
                 <c:pt idx="64" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>42903091706</c:v>
+                  <c:v>42042547122</c:v>
                 </c:pt>
                 <c:pt idx="65" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>43295100319</c:v>
+                  <c:v>42500126191</c:v>
                 </c:pt>
                 <c:pt idx="66" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>43722338628</c:v>
+                  <c:v>42899174700</c:v>
                 </c:pt>
                 <c:pt idx="67" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>44125436662</c:v>
+                  <c:v>43213919536</c:v>
                 </c:pt>
                 <c:pt idx="68" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>44466065957</c:v>
+                  <c:v>43430829049</c:v>
                 </c:pt>
                 <c:pt idx="69" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>44718468770</c:v>
+                  <c:v>43700202954</c:v>
                 </c:pt>
                 <c:pt idx="70" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>45020675048</c:v>
+                  <c:v>43989154183</c:v>
                 </c:pt>
                 <c:pt idx="71" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>45346091692</c:v>
+                  <c:v>44230191982</c:v>
                 </c:pt>
                 <c:pt idx="72" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>45630506426</c:v>
+                  <c:v>44518485505</c:v>
                 </c:pt>
                 <c:pt idx="73" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>45949070565</c:v>
+                  <c:v>44772336100</c:v>
                 </c:pt>
                 <c:pt idx="74" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>46238255214</c:v>
+                  <c:v>45001838836</c:v>
                 </c:pt>
                 <c:pt idx="75" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>46503495676</c:v>
+                  <c:v>45271431584</c:v>
                 </c:pt>
                 <c:pt idx="76" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>46801866788</c:v>
+                  <c:v>45544136081</c:v>
                 </c:pt>
                 <c:pt idx="77" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>47109044079</c:v>
+                  <c:v>45735143263</c:v>
                 </c:pt>
                 <c:pt idx="78" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>47344946880</c:v>
+                  <c:v>45927998000</c:v>
                 </c:pt>
                 <c:pt idx="79" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>47583552974</c:v>
+                  <c:v>46223207434</c:v>
                 </c:pt>
                 <c:pt idx="80" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>47914540853</c:v>
+                  <c:v>46524480115</c:v>
                 </c:pt>
                 <c:pt idx="81" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>48256235416</c:v>
+                  <c:v>46852301108</c:v>
                 </c:pt>
                 <c:pt idx="82" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>48616854881</c:v>
+                  <c:v>47242897933</c:v>
                 </c:pt>
                 <c:pt idx="83" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>49030603948</c:v>
+                  <c:v>47613532435</c:v>
                 </c:pt>
                 <c:pt idx="84" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>49476973464</c:v>
+                  <c:v>47875283979</c:v>
                 </c:pt>
                 <c:pt idx="85" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>49834906835</c:v>
+                  <c:v>48223797474</c:v>
                 </c:pt>
                 <c:pt idx="86" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>50205992583</c:v>
+                  <c:v>48551296155</c:v>
                 </c:pt>
                 <c:pt idx="87" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>50559927352</c:v>
+                  <c:v>48785720289</c:v>
                 </c:pt>
                 <c:pt idx="88" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>50827984466</c:v>
+                  <c:v>49057130936</c:v>
                 </c:pt>
                 <c:pt idx="89" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>51157663709</c:v>
+                  <c:v>49357186096</c:v>
                 </c:pt>
                 <c:pt idx="90" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>51519100510</c:v>
+                  <c:v>49680351792</c:v>
                 </c:pt>
                 <c:pt idx="91" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>51888045970</c:v>
+                  <c:v>49972800738</c:v>
                 </c:pt>
                 <c:pt idx="92" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>52222250556</c:v>
+                  <c:v>50301969565</c:v>
                 </c:pt>
                 <c:pt idx="93" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>52583372780</c:v>
+                  <c:v>50592315729</c:v>
                 </c:pt>
                 <c:pt idx="94" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>52913459274</c:v>
+                  <c:v>50834232796</c:v>
                 </c:pt>
                 <c:pt idx="95" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>53200970581</c:v>
+                  <c:v>51108855143</c:v>
                 </c:pt>
                 <c:pt idx="96" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
-                  <c:v>53483452946</c:v>
+                  <c:v>51433764417</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3144,169 +3187,169 @@
             <c:numRef>
               <c:f>'RCL (Consolidado)'!$Q$67:$BR$67</c:f>
               <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
-                  <c:v>22233722420</c:v>
+                  <c:v>22798347815.029999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22798347815</c:v>
+                  <c:v>22929797808.560001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22929797809</c:v>
+                  <c:v>22990748741.380001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22990748741</c:v>
+                  <c:v>23152976595.670002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23152976596</c:v>
+                  <c:v>22832574709.889999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22832574710</c:v>
+                  <c:v>22403882464.529995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22403882465</c:v>
+                  <c:v>22741180506.900002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22741180507</c:v>
+                  <c:v>23121102322.040001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>23121102322</c:v>
+                  <c:v>23781044029.560001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23781044030</c:v>
+                  <c:v>24109875952.700001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>24109875953</c:v>
+                  <c:v>24363479288.900002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24363479289</c:v>
+                  <c:v>24714978511.639996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24714978512</c:v>
+                  <c:v>24561622290.279999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>24561622290</c:v>
+                  <c:v>24971859670.439995</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>24971859670</c:v>
+                  <c:v>25362216793.499996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>25362216793</c:v>
+                  <c:v>25777375535.709999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>25777375536</c:v>
+                  <c:v>26503745667.459999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>26503745667</c:v>
+                  <c:v>27199743226.619999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>27199743227</c:v>
+                  <c:v>27496817096.909996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>27496817097</c:v>
+                  <c:v>27716283800.459995</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>27716283800</c:v>
+                  <c:v>27916127607.549995</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>27916127608</c:v>
+                  <c:v>28249420002.609993</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>28249420003</c:v>
+                  <c:v>28691998001.789993</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>28691998002</c:v>
+                  <c:v>29172812119.439999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>29172812119</c:v>
+                  <c:v>29792223779.029995</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>29792223779</c:v>
+                  <c:v>30069848636.389999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>30069848636</c:v>
+                  <c:v>30549597289.140003</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>30549597289</c:v>
+                  <c:v>31033686486.82</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>31033686487</c:v>
+                  <c:v>31593084462.230003</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>31593084462</c:v>
+                  <c:v>32475927145.119999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>32475927145</c:v>
+                  <c:v>33127940007.180004</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>33127940007</c:v>
+                  <c:v>33489185610.540001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>33489185611</c:v>
+                  <c:v>33483591046.269997</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>33483591046</c:v>
+                  <c:v>33675940817.990002</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>33675940818</c:v>
+                  <c:v>33944328717.990002</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>33944328718</c:v>
+                  <c:v>34032118879.170006</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>34032118879</c:v>
+                  <c:v>34292740077.91</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>34292740078</c:v>
+                  <c:v>34427695588.43</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>34427695588</c:v>
+                  <c:v>34470430837.899994</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>34470430838</c:v>
+                  <c:v>34659760683.858002</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>34680870364</c:v>
+                  <c:v>34862287288.871994</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>34904988701</c:v>
+                  <c:v>34759454089.789993</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>34824297622</c:v>
+                  <c:v>34664503583.383995</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>34751979437</c:v>
+                  <c:v>34952336553.295998</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>35072387821</c:v>
+                  <c:v>35264429680.958</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>35426990166</c:v>
+                  <c:v>35674538536.051994</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>35870795865</c:v>
+                  <c:v>36318197922.844009</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>36548729160</c:v>
+                  <c:v>36888301388.196007</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>37362687827</c:v>
+                  <c:v>37051931427.596001</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>37797107428</c:v>
+                  <c:v>37539399625.326004</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>38284575625</c:v>
+                  <c:v>37948988319.175995</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>38694164319</c:v>
+                  <c:v>38011123522.547997</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>38735189842</c:v>
+                  <c:v>38211006746</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>39045234937</c:v>
+                  <c:v>38519005939.751999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3323,11 +3366,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="983847392"/>
-        <c:axId val="983849744"/>
+        <c:axId val="725629144"/>
+        <c:axId val="725629928"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="983847392"/>
+        <c:axId val="725629144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3370,14 +3413,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="983849744"/>
+        <c:crossAx val="725629928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="983849744"/>
+        <c:axId val="725629928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="20000000000"/>
@@ -3417,7 +3460,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="983847392"/>
+        <c:crossAx val="725629144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -4386,13 +4429,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:DI106"/>
+  <dimension ref="B1:DI114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="BU54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="BP65" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BY82" sqref="BY82"/>
+      <selection pane="bottomRight" activeCell="BS64" sqref="BS64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4530,11 +4573,11 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="45"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="54"/>
       <c r="F2" s="38">
         <v>43466</v>
       </c>
@@ -4864,11 +4907,11 @@
       <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
       <c r="F3" s="37">
         <v>2615228599.48</v>
       </c>
@@ -5199,10 +5242,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="7"/>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="43"/>
+      <c r="E4" s="52"/>
       <c r="F4" s="8">
         <v>1867686994.49</v>
       </c>
@@ -7203,10 +7246,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="7"/>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="43"/>
+      <c r="E10" s="52"/>
       <c r="F10" s="8">
         <v>99153847.969999999</v>
       </c>
@@ -7537,10 +7580,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="7"/>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="43"/>
+      <c r="E11" s="52"/>
       <c r="F11" s="8">
         <v>11535985.5</v>
       </c>
@@ -8539,10 +8582,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="7"/>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="43"/>
+      <c r="E14" s="52"/>
       <c r="F14" s="8">
         <v>0</v>
       </c>
@@ -8873,10 +8916,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="7"/>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="43"/>
+      <c r="E15" s="52"/>
       <c r="F15" s="8">
         <v>0</v>
       </c>
@@ -9207,10 +9250,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="7"/>
-      <c r="D16" s="43" t="s">
+      <c r="D16" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="43"/>
+      <c r="E16" s="52"/>
       <c r="F16" s="8">
         <v>72367508.560000002</v>
       </c>
@@ -9541,10 +9584,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="7"/>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="43"/>
+      <c r="E17" s="52"/>
       <c r="F17" s="8">
         <v>491782470.01999998</v>
       </c>
@@ -11545,10 +11588,10 @@
         <v>21</v>
       </c>
       <c r="C23" s="7"/>
-      <c r="D23" s="43" t="s">
+      <c r="D23" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="43"/>
+      <c r="E23" s="52"/>
       <c r="F23" s="8">
         <v>72701792.939999998</v>
       </c>
@@ -11878,11 +11921,11 @@
       <c r="B24" s="4">
         <v>22</v>
       </c>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
       <c r="F24" s="5">
         <v>752001511.88999999</v>
       </c>
@@ -12213,10 +12256,10 @@
         <v>23</v>
       </c>
       <c r="C25" s="12"/>
-      <c r="D25" s="43" t="s">
+      <c r="D25" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="43"/>
+      <c r="E25" s="52"/>
       <c r="F25" s="8">
         <v>382257583.66000003</v>
       </c>
@@ -14469,10 +14512,10 @@
         <v>30</v>
       </c>
       <c r="C32" s="12"/>
-      <c r="D32" s="43" t="s">
+      <c r="D32" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="43"/>
+      <c r="E32" s="52"/>
       <c r="F32" s="8">
         <v>98620408.819999993</v>
       </c>
@@ -14803,10 +14846,10 @@
         <v>31</v>
       </c>
       <c r="C33" s="12"/>
-      <c r="D33" s="43" t="s">
+      <c r="D33" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="43"/>
+      <c r="E33" s="52"/>
       <c r="F33" s="8">
         <v>1552979.09</v>
       </c>
@@ -15137,10 +15180,10 @@
         <v>32</v>
       </c>
       <c r="C34" s="12"/>
-      <c r="D34" s="43" t="s">
+      <c r="D34" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="43"/>
+      <c r="E34" s="52"/>
       <c r="F34" s="8">
         <v>0</v>
       </c>
@@ -15471,10 +15514,10 @@
         <v>33</v>
       </c>
       <c r="C35" s="12"/>
-      <c r="D35" s="43" t="s">
+      <c r="D35" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="43"/>
+      <c r="E35" s="52"/>
       <c r="F35" s="15">
         <v>269570540.31999999</v>
       </c>
@@ -18906,11 +18949,11 @@
       <c r="B46" s="4">
         <v>44</v>
       </c>
-      <c r="C46" s="46" t="s">
+      <c r="C46" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="46"/>
-      <c r="E46" s="46"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
       <c r="F46" s="5">
         <v>1863227087.5899999</v>
       </c>
@@ -19478,11 +19521,11 @@
       <c r="B48" s="4">
         <v>46</v>
       </c>
-      <c r="C48" s="47" t="s">
+      <c r="C48" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
       <c r="F48" s="20">
         <v>1863227087.5899999</v>
       </c>
@@ -20050,11 +20093,11 @@
       <c r="B50" s="4">
         <v>48</v>
       </c>
-      <c r="C50" s="47" t="s">
+      <c r="C50" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="D50" s="47"/>
-      <c r="E50" s="47"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="56"/>
       <c r="F50" s="20">
         <v>1863227087.5899999</v>
       </c>
@@ -20382,11 +20425,11 @@
     </row>
     <row r="51" spans="2:113" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="52" spans="2:113" x14ac:dyDescent="0.2">
-      <c r="C52" s="46" t="s">
+      <c r="C52" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="D52" s="46"/>
-      <c r="E52" s="46"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="55"/>
       <c r="Q52" s="21">
         <f>SUM(F46:Q46)</f>
         <v>24538621316.629997</v>
@@ -21139,11 +21182,11 @@
       </c>
     </row>
     <row r="56" spans="2:113" x14ac:dyDescent="0.2">
-      <c r="C56" s="46" t="s">
+      <c r="C56" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="D56" s="46"/>
-      <c r="E56" s="46"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="55"/>
       <c r="BR56" s="35">
         <f>SUM(BG$46:BQ$46)+BR53</f>
         <v>39447296793.788559</v>
@@ -21322,11 +21365,11 @@
       </c>
     </row>
     <row r="57" spans="2:113" x14ac:dyDescent="0.2">
-      <c r="C57" s="46" t="s">
+      <c r="C57" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="D57" s="46"/>
-      <c r="E57" s="46"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="55"/>
       <c r="BR57" s="35">
         <f>SUM(BG$46:BQ$46)+BR54</f>
         <v>39763284832.35144</v>
@@ -21720,15 +21763,15 @@
         <f t="shared" si="4"/>
         <v>39045234936.590004</v>
       </c>
-      <c r="BR59" s="42">
-        <v>39045234937</v>
-      </c>
+      <c r="BR59" s="42"/>
     </row>
     <row r="60" spans="2:113" x14ac:dyDescent="0.2">
       <c r="E60" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="BR60" s="21"/>
+      <c r="BR60" s="21">
+        <v>39605290813.07</v>
+      </c>
       <c r="BS60" s="21">
         <f t="shared" ref="BS60:DI60" si="5">BS52</f>
         <v>40033003482.220001</v>
@@ -21906,7 +21949,9 @@
       <c r="E61" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="BR61" s="35"/>
+      <c r="BR61" s="35">
+        <v>39447296793.788559</v>
+      </c>
       <c r="BS61" s="35">
         <f t="shared" ref="BS61:DI61" si="6">BS56</f>
         <v>39727336503.276917</v>
@@ -22084,7 +22129,9 @@
       <c r="E62" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="BR62" s="35"/>
+      <c r="BR62" s="35">
+        <v>39763284832.35144</v>
+      </c>
       <c r="BS62" s="35">
         <f t="shared" ref="BS62:DI62" si="7">BS57</f>
         <v>40338670461.163086</v>
@@ -22262,754 +22309,1679 @@
       <c r="E64" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="BS64" s="35">
-        <v>39483323623</v>
-      </c>
-      <c r="BT64" s="35">
-        <v>39954420258</v>
-      </c>
-      <c r="BU64" s="35">
-        <v>40287459515</v>
-      </c>
-      <c r="BV64" s="35">
-        <v>40738970283</v>
-      </c>
-      <c r="BW64" s="35">
-        <v>41058256074</v>
-      </c>
-      <c r="BX64" s="35">
-        <v>41199952028</v>
-      </c>
-      <c r="BY64" s="35">
-        <v>41324354102</v>
-      </c>
-      <c r="BZ64" s="35">
-        <v>41623509016</v>
-      </c>
-      <c r="CA64" s="35">
-        <v>41937023816</v>
-      </c>
-      <c r="CB64" s="35">
-        <v>42335183601</v>
-      </c>
-      <c r="CC64" s="35">
-        <v>42903091706</v>
-      </c>
-      <c r="CD64" s="35">
-        <v>43295100319</v>
-      </c>
-      <c r="CE64" s="35">
-        <v>43722338628</v>
-      </c>
-      <c r="CF64" s="35">
-        <v>44125436662</v>
-      </c>
-      <c r="CG64" s="35">
-        <v>44466065957</v>
-      </c>
-      <c r="CH64" s="35">
-        <v>44718468770</v>
-      </c>
-      <c r="CI64" s="35">
-        <v>45020675048</v>
-      </c>
-      <c r="CJ64" s="35">
-        <v>45346091692</v>
-      </c>
-      <c r="CK64" s="35">
-        <v>45630506426</v>
-      </c>
-      <c r="CL64" s="35">
-        <v>45949070565</v>
-      </c>
-      <c r="CM64" s="35">
-        <v>46238255214</v>
-      </c>
-      <c r="CN64" s="35">
-        <v>46503495676</v>
-      </c>
-      <c r="CO64" s="35">
-        <v>46801866788</v>
-      </c>
-      <c r="CP64" s="35">
-        <v>47109044079</v>
-      </c>
-      <c r="CQ64" s="35">
-        <v>47344946880</v>
-      </c>
-      <c r="CR64" s="35">
-        <v>47583552974</v>
-      </c>
-      <c r="CS64" s="35">
-        <v>47914540853</v>
-      </c>
-      <c r="CT64" s="35">
-        <v>48256235416</v>
-      </c>
-      <c r="CU64" s="35">
-        <v>48616854881</v>
-      </c>
-      <c r="CV64" s="35">
-        <v>49030603948</v>
-      </c>
-      <c r="CW64" s="35">
-        <v>49476973464</v>
-      </c>
-      <c r="CX64" s="35">
-        <v>49834906835</v>
-      </c>
-      <c r="CY64" s="35">
-        <v>50205992583</v>
-      </c>
-      <c r="CZ64" s="35">
-        <v>50559927352</v>
-      </c>
-      <c r="DA64" s="35">
-        <v>50827984466</v>
-      </c>
-      <c r="DB64" s="35">
-        <v>51157663709</v>
-      </c>
-      <c r="DC64" s="35">
-        <v>51519100510</v>
-      </c>
-      <c r="DD64" s="35">
-        <v>51888045970</v>
-      </c>
-      <c r="DE64" s="35">
-        <v>52222250556</v>
-      </c>
-      <c r="DF64" s="35">
-        <v>52583372780</v>
-      </c>
-      <c r="DG64" s="35">
-        <v>52913459274</v>
-      </c>
-      <c r="DH64" s="35">
-        <v>53200970581</v>
-      </c>
-      <c r="DI64" s="35">
-        <v>53483452946</v>
+      <c r="BS64" s="34">
+        <v>38913076822</v>
+      </c>
+      <c r="BT64" s="34">
+        <v>39190958511</v>
+      </c>
+      <c r="BU64" s="34">
+        <v>39605544440</v>
+      </c>
+      <c r="BV64" s="34">
+        <v>39875035025</v>
+      </c>
+      <c r="BW64" s="34">
+        <v>39963020979</v>
+      </c>
+      <c r="BX64" s="34">
+        <v>40173198220</v>
+      </c>
+      <c r="BY64" s="34">
+        <v>40572588976</v>
+      </c>
+      <c r="BZ64" s="34">
+        <v>40816239538</v>
+      </c>
+      <c r="CA64" s="34">
+        <v>41148170690</v>
+      </c>
+      <c r="CB64" s="34">
+        <v>41642315355</v>
+      </c>
+      <c r="CC64" s="34">
+        <v>42042547122</v>
+      </c>
+      <c r="CD64" s="34">
+        <v>42500126191</v>
+      </c>
+      <c r="CE64" s="34">
+        <v>42899174700</v>
+      </c>
+      <c r="CF64" s="34">
+        <v>43213919536</v>
+      </c>
+      <c r="CG64" s="34">
+        <v>43430829049</v>
+      </c>
+      <c r="CH64" s="34">
+        <v>43700202954</v>
+      </c>
+      <c r="CI64" s="34">
+        <v>43989154183</v>
+      </c>
+      <c r="CJ64" s="34">
+        <v>44230191982</v>
+      </c>
+      <c r="CK64" s="34">
+        <v>44518485505</v>
+      </c>
+      <c r="CL64" s="34">
+        <v>44772336100</v>
+      </c>
+      <c r="CM64" s="34">
+        <v>45001838836</v>
+      </c>
+      <c r="CN64" s="34">
+        <v>45271431584</v>
+      </c>
+      <c r="CO64" s="34">
+        <v>45544136081</v>
+      </c>
+      <c r="CP64" s="34">
+        <v>45735143263</v>
+      </c>
+      <c r="CQ64" s="34">
+        <v>45927998000</v>
+      </c>
+      <c r="CR64" s="34">
+        <v>46223207434</v>
+      </c>
+      <c r="CS64" s="34">
+        <v>46524480115</v>
+      </c>
+      <c r="CT64" s="34">
+        <v>46852301108</v>
+      </c>
+      <c r="CU64" s="34">
+        <v>47242897933</v>
+      </c>
+      <c r="CV64" s="34">
+        <v>47613532435</v>
+      </c>
+      <c r="CW64" s="34">
+        <v>47875283979</v>
+      </c>
+      <c r="CX64" s="34">
+        <v>48223797474</v>
+      </c>
+      <c r="CY64" s="34">
+        <v>48551296155</v>
+      </c>
+      <c r="CZ64" s="34">
+        <v>48785720289</v>
+      </c>
+      <c r="DA64" s="34">
+        <v>49057130936</v>
+      </c>
+      <c r="DB64" s="34">
+        <v>49357186096</v>
+      </c>
+      <c r="DC64" s="34">
+        <v>49680351792</v>
+      </c>
+      <c r="DD64" s="34">
+        <v>49972800738</v>
+      </c>
+      <c r="DE64" s="34">
+        <v>50301969565</v>
+      </c>
+      <c r="DF64" s="34">
+        <v>50592315729</v>
+      </c>
+      <c r="DG64" s="34">
+        <v>50834232796</v>
+      </c>
+      <c r="DH64" s="34">
+        <v>51108855143</v>
+      </c>
+      <c r="DI64" s="34">
+        <v>51433764417</v>
       </c>
     </row>
     <row r="65" spans="5:113" x14ac:dyDescent="0.2">
       <c r="E65" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="BS65" s="35">
-        <v>39135179738</v>
-      </c>
-      <c r="BT65" s="35">
-        <v>39301982312</v>
-      </c>
-      <c r="BU65" s="35">
-        <v>39379922862</v>
-      </c>
-      <c r="BV65" s="35">
-        <v>39586780243</v>
-      </c>
-      <c r="BW65" s="35">
-        <v>39661857913</v>
-      </c>
-      <c r="BX65" s="35">
-        <v>39555787867</v>
-      </c>
-      <c r="BY65" s="35">
-        <v>39426966161</v>
-      </c>
-      <c r="BZ65" s="35">
-        <v>39466465052</v>
-      </c>
-      <c r="CA65" s="35">
-        <v>39513381103</v>
-      </c>
-      <c r="CB65" s="35">
-        <v>39637741811</v>
-      </c>
-      <c r="CC65" s="35">
-        <v>39924538615</v>
-      </c>
-      <c r="CD65" s="35">
-        <v>40028098922</v>
-      </c>
-      <c r="CE65" s="35">
-        <v>40241792155</v>
-      </c>
-      <c r="CF65" s="35">
-        <v>40459756250</v>
-      </c>
-      <c r="CG65" s="35">
-        <v>40615412803</v>
-      </c>
-      <c r="CH65" s="35">
-        <v>40682775004</v>
-      </c>
-      <c r="CI65" s="35">
-        <v>40799683914</v>
-      </c>
-      <c r="CJ65" s="35">
-        <v>40939389342</v>
-      </c>
-      <c r="CK65" s="35">
-        <v>41037547423</v>
-      </c>
-      <c r="CL65" s="35">
-        <v>41169198549</v>
-      </c>
-      <c r="CM65" s="35">
-        <v>41270719832</v>
-      </c>
-      <c r="CN65" s="35">
-        <v>41347466568</v>
-      </c>
-      <c r="CO65" s="35">
-        <v>41456445236</v>
-      </c>
-      <c r="CP65" s="35">
-        <v>41573272775</v>
-      </c>
-      <c r="CQ65" s="35">
-        <v>41615992746</v>
-      </c>
-      <c r="CR65" s="35">
-        <v>41659392784</v>
-      </c>
-      <c r="CS65" s="35">
-        <v>41793806277</v>
-      </c>
-      <c r="CT65" s="35">
-        <v>41937538524</v>
-      </c>
-      <c r="CU65" s="35">
-        <v>42098791402</v>
-      </c>
-      <c r="CV65" s="35">
-        <v>42311756082</v>
-      </c>
-      <c r="CW65" s="35">
-        <v>42555912320</v>
-      </c>
-      <c r="CX65" s="35">
-        <v>42710194544</v>
-      </c>
-      <c r="CY65" s="35">
-        <v>42876184139</v>
-      </c>
-      <c r="CZ65" s="35">
-        <v>43023572217</v>
-      </c>
-      <c r="DA65" s="35">
-        <v>43083627972</v>
-      </c>
-      <c r="DB65" s="35">
-        <v>43203848291</v>
-      </c>
-      <c r="DC65" s="35">
-        <v>43335956557</v>
-      </c>
-      <c r="DD65" s="35">
-        <v>43463816713</v>
-      </c>
-      <c r="DE65" s="35">
-        <v>43552275172</v>
-      </c>
-      <c r="DF65" s="35">
-        <v>43663110369</v>
-      </c>
-      <c r="DG65" s="35">
-        <v>43738482635</v>
-      </c>
-      <c r="DH65" s="35">
-        <v>43766960272</v>
-      </c>
-      <c r="DI65" s="35">
-        <v>43786191644</v>
+      <c r="BS65" s="34">
+        <v>38574172583</v>
+      </c>
+      <c r="BT65" s="34">
+        <v>38557567446</v>
+      </c>
+      <c r="BU65" s="34">
+        <v>38723921035</v>
+      </c>
+      <c r="BV65" s="34">
+        <v>38754633839</v>
+      </c>
+      <c r="BW65" s="34">
+        <v>38603786935</v>
+      </c>
+      <c r="BX65" s="34">
+        <v>38571283456</v>
+      </c>
+      <c r="BY65" s="34">
+        <v>38722357648</v>
+      </c>
+      <c r="BZ65" s="34">
+        <v>38711148487</v>
+      </c>
+      <c r="CA65" s="34">
+        <v>38781209773</v>
+      </c>
+      <c r="CB65" s="34">
+        <v>39006246522</v>
+      </c>
+      <c r="CC65" s="34">
+        <v>39130041493</v>
+      </c>
+      <c r="CD65" s="34">
+        <v>39303845477</v>
+      </c>
+      <c r="CE65" s="34">
+        <v>39492999449</v>
+      </c>
+      <c r="CF65" s="34">
+        <v>39625384002</v>
+      </c>
+      <c r="CG65" s="34">
+        <v>39660268600</v>
+      </c>
+      <c r="CH65" s="34">
+        <v>39747708562</v>
+      </c>
+      <c r="CI65" s="34">
+        <v>39854615474</v>
+      </c>
+      <c r="CJ65" s="34">
+        <v>39913331204</v>
+      </c>
+      <c r="CK65" s="34">
+        <v>40018884695</v>
+      </c>
+      <c r="CL65" s="34">
+        <v>40089459060</v>
+      </c>
+      <c r="CM65" s="34">
+        <v>40135049098</v>
+      </c>
+      <c r="CN65" s="34">
+        <v>40220007230</v>
+      </c>
+      <c r="CO65" s="34">
+        <v>40307282069</v>
+      </c>
+      <c r="CP65" s="34">
+        <v>40312001757</v>
+      </c>
+      <c r="CQ65" s="34">
+        <v>40317912397</v>
+      </c>
+      <c r="CR65" s="34">
+        <v>40425353112</v>
+      </c>
+      <c r="CS65" s="34">
+        <v>40537898130</v>
+      </c>
+      <c r="CT65" s="34">
+        <v>40675995753</v>
+      </c>
+      <c r="CU65" s="34">
+        <v>40875841576</v>
+      </c>
+      <c r="CV65" s="34">
+        <v>41054669706</v>
+      </c>
+      <c r="CW65" s="34">
+        <v>41123535409</v>
+      </c>
+      <c r="CX65" s="34">
+        <v>41278062667</v>
+      </c>
+      <c r="CY65" s="34">
+        <v>41410456565</v>
+      </c>
+      <c r="CZ65" s="34">
+        <v>41448641655</v>
+      </c>
+      <c r="DA65" s="34">
+        <v>41522665429</v>
+      </c>
+      <c r="DB65" s="34">
+        <v>41624174210</v>
+      </c>
+      <c r="DC65" s="34">
+        <v>41726848014</v>
+      </c>
+      <c r="DD65" s="34">
+        <v>41786073249</v>
+      </c>
+      <c r="DE65" s="34">
+        <v>41877111461</v>
+      </c>
+      <c r="DF65" s="34">
+        <v>41924550629</v>
+      </c>
+      <c r="DG65" s="34">
+        <v>41918908439</v>
+      </c>
+      <c r="DH65" s="34">
+        <v>41941437189</v>
+      </c>
+      <c r="DI65" s="34">
+        <v>42009830493</v>
       </c>
     </row>
     <row r="66" spans="5:113" x14ac:dyDescent="0.2">
       <c r="E66" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="BS66" s="35">
-        <v>39831467508</v>
-      </c>
-      <c r="BT66" s="35">
-        <v>40606858203</v>
-      </c>
-      <c r="BU66" s="35">
-        <v>41194996168</v>
-      </c>
-      <c r="BV66" s="35">
-        <v>41891160324</v>
-      </c>
-      <c r="BW66" s="35">
-        <v>42454654234</v>
-      </c>
-      <c r="BX66" s="35">
-        <v>42844116189</v>
-      </c>
-      <c r="BY66" s="35">
-        <v>43221742043</v>
-      </c>
-      <c r="BZ66" s="35">
-        <v>43780552981</v>
-      </c>
-      <c r="CA66" s="35">
-        <v>44360666528</v>
-      </c>
-      <c r="CB66" s="35">
-        <v>45032625391</v>
-      </c>
-      <c r="CC66" s="35">
-        <v>45881644797</v>
-      </c>
-      <c r="CD66" s="35">
-        <v>46562101715</v>
-      </c>
-      <c r="CE66" s="35">
-        <v>47202885102</v>
-      </c>
-      <c r="CF66" s="35">
-        <v>47791117074</v>
-      </c>
-      <c r="CG66" s="35">
-        <v>48316719112</v>
-      </c>
-      <c r="CH66" s="35">
-        <v>48754162536</v>
-      </c>
-      <c r="CI66" s="35">
-        <v>49241666183</v>
-      </c>
-      <c r="CJ66" s="35">
-        <v>49752794041</v>
-      </c>
-      <c r="CK66" s="35">
-        <v>50223465429</v>
-      </c>
-      <c r="CL66" s="35">
-        <v>50728942580</v>
-      </c>
-      <c r="CM66" s="35">
-        <v>51205790596</v>
-      </c>
-      <c r="CN66" s="35">
-        <v>51659524783</v>
-      </c>
-      <c r="CO66" s="35">
-        <v>52147288340</v>
-      </c>
-      <c r="CP66" s="35">
-        <v>52644815383</v>
-      </c>
-      <c r="CQ66" s="35">
-        <v>53073901014</v>
-      </c>
-      <c r="CR66" s="35">
-        <v>53507713164</v>
-      </c>
-      <c r="CS66" s="35">
-        <v>54035275429</v>
-      </c>
-      <c r="CT66" s="35">
-        <v>54574932308</v>
-      </c>
-      <c r="CU66" s="35">
-        <v>55134918360</v>
-      </c>
-      <c r="CV66" s="35">
-        <v>55749451814</v>
-      </c>
-      <c r="CW66" s="35">
-        <v>56398034608</v>
-      </c>
-      <c r="CX66" s="35">
-        <v>56959619126</v>
-      </c>
-      <c r="CY66" s="35">
-        <v>57535801028</v>
-      </c>
-      <c r="CZ66" s="35">
-        <v>58096282488</v>
-      </c>
-      <c r="DA66" s="35">
-        <v>58572340959</v>
-      </c>
-      <c r="DB66" s="35">
-        <v>59111479128</v>
-      </c>
-      <c r="DC66" s="35">
-        <v>59702244464</v>
-      </c>
-      <c r="DD66" s="35">
-        <v>60312275228</v>
-      </c>
-      <c r="DE66" s="35">
-        <v>60892225939</v>
-      </c>
-      <c r="DF66" s="35">
-        <v>61503635191</v>
-      </c>
-      <c r="DG66" s="35">
-        <v>62088435913</v>
-      </c>
-      <c r="DH66" s="35">
-        <v>62634980889</v>
-      </c>
-      <c r="DI66" s="35">
-        <v>63180714249</v>
+      <c r="BS66">
+        <v>39251981060</v>
+      </c>
+      <c r="BT66">
+        <v>39824349576</v>
+      </c>
+      <c r="BU66">
+        <v>40487167844</v>
+      </c>
+      <c r="BV66">
+        <v>40995436210</v>
+      </c>
+      <c r="BW66">
+        <v>41322255022</v>
+      </c>
+      <c r="BX66">
+        <v>41775112984</v>
+      </c>
+      <c r="BY66">
+        <v>42422820304</v>
+      </c>
+      <c r="BZ66">
+        <v>42921330590</v>
+      </c>
+      <c r="CA66">
+        <v>43515131607</v>
+      </c>
+      <c r="CB66">
+        <v>44278384188</v>
+      </c>
+      <c r="CC66">
+        <v>44955052751</v>
+      </c>
+      <c r="CD66">
+        <v>45696406904</v>
+      </c>
+      <c r="CE66">
+        <v>46305349950</v>
+      </c>
+      <c r="CF66">
+        <v>46802455070</v>
+      </c>
+      <c r="CG66">
+        <v>47201389498</v>
+      </c>
+      <c r="CH66">
+        <v>47652697345</v>
+      </c>
+      <c r="CI66">
+        <v>48123692891</v>
+      </c>
+      <c r="CJ66">
+        <v>48547052760</v>
+      </c>
+      <c r="CK66">
+        <v>49018086315</v>
+      </c>
+      <c r="CL66">
+        <v>49455213140</v>
+      </c>
+      <c r="CM66">
+        <v>49868628573</v>
+      </c>
+      <c r="CN66">
+        <v>50322855938</v>
+      </c>
+      <c r="CO66">
+        <v>50780990094</v>
+      </c>
+      <c r="CP66">
+        <v>51158284768</v>
+      </c>
+      <c r="CQ66">
+        <v>51538083603</v>
+      </c>
+      <c r="CR66">
+        <v>52021061756</v>
+      </c>
+      <c r="CS66">
+        <v>52511062101</v>
+      </c>
+      <c r="CT66">
+        <v>53028606463</v>
+      </c>
+      <c r="CU66">
+        <v>53609954291</v>
+      </c>
+      <c r="CV66">
+        <v>54172395164</v>
+      </c>
+      <c r="CW66">
+        <v>54627032549</v>
+      </c>
+      <c r="CX66">
+        <v>55169532280</v>
+      </c>
+      <c r="CY66">
+        <v>55692135745</v>
+      </c>
+      <c r="CZ66">
+        <v>56122798923</v>
+      </c>
+      <c r="DA66">
+        <v>56591596444</v>
+      </c>
+      <c r="DB66">
+        <v>57090197983</v>
+      </c>
+      <c r="DC66">
+        <v>57633855570</v>
+      </c>
+      <c r="DD66">
+        <v>58159528227</v>
+      </c>
+      <c r="DE66">
+        <v>58726827670</v>
+      </c>
+      <c r="DF66">
+        <v>59260080830</v>
+      </c>
+      <c r="DG66">
+        <v>59749557154</v>
+      </c>
+      <c r="DH66">
+        <v>60276273097</v>
+      </c>
+      <c r="DI66">
+        <v>60857698341</v>
       </c>
     </row>
     <row r="67" spans="5:113" x14ac:dyDescent="0.2">
       <c r="E67" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="Q67" s="42">
-        <v>22233722420</v>
-      </c>
-      <c r="R67" s="42">
-        <v>22798347815</v>
-      </c>
-      <c r="S67" s="42">
-        <v>22929797809</v>
-      </c>
-      <c r="T67" s="42">
-        <v>22990748741</v>
-      </c>
-      <c r="U67" s="42">
-        <v>23152976596</v>
-      </c>
-      <c r="V67" s="42">
-        <v>22832574710</v>
-      </c>
-      <c r="W67" s="42">
-        <v>22403882465</v>
-      </c>
-      <c r="X67" s="42">
-        <v>22741180507</v>
-      </c>
-      <c r="Y67" s="42">
-        <v>23121102322</v>
-      </c>
-      <c r="Z67" s="42">
-        <v>23781044030</v>
-      </c>
-      <c r="AA67" s="42">
-        <v>24109875953</v>
-      </c>
-      <c r="AB67" s="42">
-        <v>24363479289</v>
-      </c>
-      <c r="AC67" s="42">
-        <v>24714978512</v>
-      </c>
-      <c r="AD67" s="42">
-        <v>24561622290</v>
-      </c>
-      <c r="AE67" s="42">
-        <v>24971859670</v>
-      </c>
-      <c r="AF67" s="42">
-        <v>25362216793</v>
-      </c>
-      <c r="AG67" s="42">
-        <v>25777375536</v>
-      </c>
-      <c r="AH67" s="42">
-        <v>26503745667</v>
-      </c>
-      <c r="AI67" s="42">
-        <v>27199743227</v>
-      </c>
-      <c r="AJ67" s="42">
-        <v>27496817097</v>
-      </c>
-      <c r="AK67" s="42">
-        <v>27716283800</v>
-      </c>
-      <c r="AL67" s="42">
-        <v>27916127608</v>
-      </c>
-      <c r="AM67" s="42">
-        <v>28249420003</v>
-      </c>
-      <c r="AN67" s="42">
-        <v>28691998002</v>
-      </c>
-      <c r="AO67" s="42">
-        <v>29172812119</v>
-      </c>
-      <c r="AP67" s="42">
-        <v>29792223779</v>
-      </c>
-      <c r="AQ67" s="42">
-        <v>30069848636</v>
-      </c>
-      <c r="AR67" s="42">
-        <v>30549597289</v>
-      </c>
-      <c r="AS67" s="42">
-        <v>31033686487</v>
-      </c>
-      <c r="AT67" s="42">
-        <v>31593084462</v>
-      </c>
-      <c r="AU67" s="42">
-        <v>32475927145</v>
-      </c>
-      <c r="AV67" s="42">
-        <v>33127940007</v>
-      </c>
-      <c r="AW67" s="42">
-        <v>33489185611</v>
-      </c>
-      <c r="AX67" s="42">
-        <v>33483591046</v>
-      </c>
-      <c r="AY67" s="42">
-        <v>33675940818</v>
-      </c>
-      <c r="AZ67" s="42">
-        <v>33944328718</v>
-      </c>
-      <c r="BA67" s="42">
-        <v>34032118879</v>
-      </c>
-      <c r="BB67" s="42">
-        <v>34292740078</v>
-      </c>
-      <c r="BC67" s="42">
-        <v>34427695588</v>
-      </c>
-      <c r="BD67" s="42">
-        <v>34470430838</v>
-      </c>
-      <c r="BE67" s="42">
-        <v>34680870364</v>
-      </c>
-      <c r="BF67" s="42">
-        <v>34904988701</v>
-      </c>
-      <c r="BG67" s="42">
-        <v>34824297622</v>
-      </c>
-      <c r="BH67" s="42">
-        <v>34751979437</v>
-      </c>
-      <c r="BI67" s="42">
-        <v>35072387821</v>
-      </c>
-      <c r="BJ67" s="42">
-        <v>35426990166</v>
-      </c>
-      <c r="BK67" s="42">
-        <v>35870795865</v>
-      </c>
-      <c r="BL67" s="42">
-        <v>36548729160</v>
-      </c>
-      <c r="BM67" s="42">
-        <v>37362687827</v>
-      </c>
-      <c r="BN67" s="42">
-        <v>37797107428</v>
-      </c>
-      <c r="BO67" s="42">
-        <v>38284575625</v>
-      </c>
-      <c r="BP67" s="42">
-        <v>38694164319</v>
-      </c>
-      <c r="BQ67" s="42">
-        <v>38735189842</v>
-      </c>
-      <c r="BR67" s="42">
-        <v>39045234937</v>
+      <c r="Q67" s="50">
+        <v>22798347815.029999</v>
+      </c>
+      <c r="R67" s="50">
+        <v>22929797808.560001</v>
+      </c>
+      <c r="S67" s="50">
+        <v>22990748741.380001</v>
+      </c>
+      <c r="T67" s="50">
+        <v>23152976595.670002</v>
+      </c>
+      <c r="U67" s="50">
+        <v>22832574709.889999</v>
+      </c>
+      <c r="V67" s="50">
+        <v>22403882464.529995</v>
+      </c>
+      <c r="W67" s="50">
+        <v>22741180506.900002</v>
+      </c>
+      <c r="X67" s="50">
+        <v>23121102322.040001</v>
+      </c>
+      <c r="Y67" s="50">
+        <v>23781044029.560001</v>
+      </c>
+      <c r="Z67" s="50">
+        <v>24109875952.700001</v>
+      </c>
+      <c r="AA67" s="50">
+        <v>24363479288.900002</v>
+      </c>
+      <c r="AB67" s="50">
+        <v>24714978511.639996</v>
+      </c>
+      <c r="AC67" s="50">
+        <v>24561622290.279999</v>
+      </c>
+      <c r="AD67" s="50">
+        <v>24971859670.439995</v>
+      </c>
+      <c r="AE67" s="50">
+        <v>25362216793.499996</v>
+      </c>
+      <c r="AF67" s="50">
+        <v>25777375535.709999</v>
+      </c>
+      <c r="AG67" s="50">
+        <v>26503745667.459999</v>
+      </c>
+      <c r="AH67" s="50">
+        <v>27199743226.619999</v>
+      </c>
+      <c r="AI67" s="50">
+        <v>27496817096.909996</v>
+      </c>
+      <c r="AJ67" s="50">
+        <v>27716283800.459995</v>
+      </c>
+      <c r="AK67" s="50">
+        <v>27916127607.549995</v>
+      </c>
+      <c r="AL67" s="50">
+        <v>28249420002.609993</v>
+      </c>
+      <c r="AM67" s="50">
+        <v>28691998001.789993</v>
+      </c>
+      <c r="AN67" s="50">
+        <v>29172812119.439999</v>
+      </c>
+      <c r="AO67" s="50">
+        <v>29792223779.029995</v>
+      </c>
+      <c r="AP67" s="50">
+        <v>30069848636.389999</v>
+      </c>
+      <c r="AQ67" s="50">
+        <v>30549597289.140003</v>
+      </c>
+      <c r="AR67" s="50">
+        <v>31033686486.82</v>
+      </c>
+      <c r="AS67" s="50">
+        <v>31593084462.230003</v>
+      </c>
+      <c r="AT67" s="50">
+        <v>32475927145.119999</v>
+      </c>
+      <c r="AU67" s="50">
+        <v>33127940007.180004</v>
+      </c>
+      <c r="AV67" s="50">
+        <v>33489185610.540001</v>
+      </c>
+      <c r="AW67" s="50">
+        <v>33483591046.269997</v>
+      </c>
+      <c r="AX67" s="50">
+        <v>33675940817.990002</v>
+      </c>
+      <c r="AY67" s="50">
+        <v>33944328717.990002</v>
+      </c>
+      <c r="AZ67" s="50">
+        <v>34032118879.170006</v>
+      </c>
+      <c r="BA67" s="50">
+        <v>34292740077.91</v>
+      </c>
+      <c r="BB67" s="50">
+        <v>34427695588.43</v>
+      </c>
+      <c r="BC67" s="50">
+        <v>34470430837.899994</v>
+      </c>
+      <c r="BD67" s="50">
+        <v>34659760683.858002</v>
+      </c>
+      <c r="BE67" s="50">
+        <v>34862287288.871994</v>
+      </c>
+      <c r="BF67" s="50">
+        <v>34759454089.789993</v>
+      </c>
+      <c r="BG67" s="50">
+        <v>34664503583.383995</v>
+      </c>
+      <c r="BH67" s="50">
+        <v>34952336553.295998</v>
+      </c>
+      <c r="BI67" s="50">
+        <v>35264429680.958</v>
+      </c>
+      <c r="BJ67" s="50">
+        <v>35674538536.051994</v>
+      </c>
+      <c r="BK67" s="50">
+        <v>36318197922.844009</v>
+      </c>
+      <c r="BL67" s="50">
+        <v>36888301388.196007</v>
+      </c>
+      <c r="BM67" s="50">
+        <v>37051931427.596001</v>
+      </c>
+      <c r="BN67" s="50">
+        <v>37539399625.326004</v>
+      </c>
+      <c r="BO67" s="50">
+        <v>37948988319.175995</v>
+      </c>
+      <c r="BP67" s="50">
+        <v>38011123522.547997</v>
+      </c>
+      <c r="BQ67" s="50">
+        <v>38211006746</v>
+      </c>
+      <c r="BR67" s="50">
+        <v>38519005939.751999</v>
       </c>
     </row>
     <row r="71" spans="5:113" x14ac:dyDescent="0.2">
-      <c r="BX71" s="51" t="s">
+      <c r="BX71" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="BY71" s="51" t="s">
+      <c r="BY71" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="BZ71" s="52" t="s">
+      <c r="BZ71" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="CA71" s="52" t="s">
+      <c r="CA71" s="47" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="72" spans="5:113" x14ac:dyDescent="0.2">
-      <c r="BW72" s="51">
+      <c r="BW72" s="46">
         <v>2024</v>
       </c>
-      <c r="BX72" s="48">
-        <v>41324354102</v>
-      </c>
-      <c r="BY72" s="48">
+      <c r="BX72" s="43">
+        <f>$BY$64</f>
+        <v>40572588976</v>
+      </c>
+      <c r="BY72" s="43">
         <v>41520739700.539993</v>
       </c>
-      <c r="BZ72" s="49">
+      <c r="BZ72" s="44">
         <f>BX72-BY72</f>
-        <v>-196385598.53999329</v>
-      </c>
-      <c r="CA72" s="50">
+        <v>-948150724.53999329</v>
+      </c>
+      <c r="CA72" s="45">
         <f>BX72/BY72-1</f>
-        <v>-4.7298193615139539E-3</v>
+        <v>-2.2835593281293698E-2</v>
+      </c>
+      <c r="CE72" s="41"/>
+      <c r="CG72">
+        <v>38913076822</v>
+      </c>
+      <c r="CH72">
+        <v>38691479251</v>
+      </c>
+      <c r="CI72">
+        <v>39134674392</v>
+      </c>
+      <c r="CJ72">
+        <v>38574172583</v>
+      </c>
+      <c r="CK72">
+        <v>39251981060</v>
       </c>
     </row>
     <row r="73" spans="5:113" x14ac:dyDescent="0.2">
       <c r="BV73" s="22"/>
-      <c r="BW73" s="51">
+      <c r="BW73" s="46">
         <v>2025</v>
       </c>
-      <c r="BX73" s="48">
-        <v>45630506426</v>
-      </c>
-      <c r="BY73" s="48">
+      <c r="BX73" s="43">
+        <f>$CK$64</f>
+        <v>44518485505</v>
+      </c>
+      <c r="BY73" s="43">
         <v>44029473322.589996</v>
       </c>
-      <c r="BZ73" s="48">
+      <c r="BZ73" s="43">
         <f t="shared" ref="BZ73:BZ75" si="8">BX73-BY73</f>
-        <v>1601033103.4100037</v>
-      </c>
-      <c r="CA73" s="50">
+        <v>489012182.41000366</v>
+      </c>
+      <c r="CA73" s="45">
         <f>BX73/BY73-1</f>
-        <v>3.6362758456812472E-2</v>
+        <v>1.1106473584800103E-2</v>
+      </c>
+      <c r="CE73" s="41"/>
+      <c r="CG73">
+        <v>39190958511</v>
+      </c>
+      <c r="CH73">
+        <v>38776806355</v>
+      </c>
+      <c r="CI73">
+        <v>39605110668</v>
+      </c>
+      <c r="CJ73">
+        <v>38557567446</v>
+      </c>
+      <c r="CK73">
+        <v>39824349576</v>
       </c>
     </row>
     <row r="74" spans="5:113" x14ac:dyDescent="0.2">
-      <c r="BW74" s="51">
+      <c r="BW74" s="46">
         <v>2026</v>
       </c>
-      <c r="BX74" s="48">
-        <v>49476973464</v>
-      </c>
-      <c r="BY74" s="48">
+      <c r="BX74" s="43">
+        <f>$CW$64</f>
+        <v>47875283979</v>
+      </c>
+      <c r="BY74" s="43">
         <v>45265030408.470001</v>
       </c>
-      <c r="BZ74" s="48">
+      <c r="BZ74" s="43">
         <f t="shared" si="8"/>
-        <v>4211943055.5299988</v>
-      </c>
-      <c r="CA74" s="50">
+        <v>2610253570.5299988</v>
+      </c>
+      <c r="CA74" s="45">
         <f>BX74/BY74-1</f>
-        <v>9.3050706417770579E-2</v>
+        <v>5.7666007224012938E-2</v>
+      </c>
+      <c r="CE74" s="41"/>
+      <c r="CG74">
+        <v>39605544440</v>
+      </c>
+      <c r="CH74">
+        <v>39029081881</v>
+      </c>
+      <c r="CI74">
+        <v>40182006998</v>
+      </c>
+      <c r="CJ74">
+        <v>38723921035</v>
+      </c>
+      <c r="CK74">
+        <v>40487167844</v>
       </c>
     </row>
     <row r="75" spans="5:113" x14ac:dyDescent="0.2">
-      <c r="BW75" s="51">
+      <c r="BW75" s="46">
         <v>2027</v>
       </c>
-      <c r="BX75" s="48">
-        <v>53483452946</v>
-      </c>
-      <c r="BY75" s="48">
+      <c r="BX75" s="43">
+        <f>$DI$64</f>
+        <v>51433764417</v>
+      </c>
+      <c r="BY75" s="43">
         <v>47446662717.779999</v>
       </c>
-      <c r="BZ75" s="48">
+      <c r="BZ75" s="43">
         <f t="shared" si="8"/>
-        <v>6036790228.2200012</v>
-      </c>
-      <c r="CA75" s="50">
+        <v>3987101699.2200012</v>
+      </c>
+      <c r="CA75" s="45">
         <f>BX75/BY75-1</f>
-        <v>0.12723318948959061</v>
+        <v>8.4033343355166767E-2</v>
+      </c>
+      <c r="CE75" s="41"/>
+      <c r="CG75">
+        <v>39875035025</v>
+      </c>
+      <c r="CH75">
+        <v>39142444067</v>
+      </c>
+      <c r="CI75">
+        <v>40607625983</v>
+      </c>
+      <c r="CJ75">
+        <v>38754633839</v>
+      </c>
+      <c r="CK75">
+        <v>40995436210</v>
       </c>
     </row>
     <row r="76" spans="5:113" x14ac:dyDescent="0.2">
       <c r="BY76" s="41"/>
+      <c r="CE76" s="41"/>
+      <c r="CG76">
+        <v>39963020979</v>
+      </c>
+      <c r="CH76">
+        <v>39074265608</v>
+      </c>
+      <c r="CI76">
+        <v>40851776349</v>
+      </c>
+      <c r="CJ76">
+        <v>38603786935</v>
+      </c>
+      <c r="CK76">
+        <v>41322255022</v>
+      </c>
     </row>
     <row r="77" spans="5:113" x14ac:dyDescent="0.2">
       <c r="BY77" s="41"/>
+      <c r="CE77" s="41"/>
+      <c r="CG77">
+        <v>40173198220</v>
+      </c>
+      <c r="CH77">
+        <v>39125762456</v>
+      </c>
+      <c r="CI77">
+        <v>41220633984</v>
+      </c>
+      <c r="CJ77">
+        <v>38571283456</v>
+      </c>
+      <c r="CK77">
+        <v>41775112984</v>
+      </c>
     </row>
     <row r="78" spans="5:113" x14ac:dyDescent="0.2">
-      <c r="BY78" s="41"/>
+      <c r="BX78" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="BY78" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="BZ78" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="CA78" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="CE78" s="41"/>
+      <c r="CG78">
+        <v>40572588976</v>
+      </c>
+      <c r="CH78">
+        <v>39362787738</v>
+      </c>
+      <c r="CI78">
+        <v>41782390214</v>
+      </c>
+      <c r="CJ78">
+        <v>38722357648</v>
+      </c>
+      <c r="CK78">
+        <v>42422820304</v>
+      </c>
     </row>
     <row r="79" spans="5:113" x14ac:dyDescent="0.2">
-      <c r="BY79" s="41"/>
+      <c r="BW79" s="46">
+        <v>2024</v>
+      </c>
+      <c r="BX79" s="48">
+        <f>BX72/1000000</f>
+        <v>40572.588975999999</v>
+      </c>
+      <c r="BY79" s="48">
+        <f>BY72/1000000</f>
+        <v>41520.739700539991</v>
+      </c>
+      <c r="BZ79" s="49">
+        <f>BX79-BY79</f>
+        <v>-948.15072453999164</v>
+      </c>
+      <c r="CA79" s="45">
+        <f>BX79/BY79-1</f>
+        <v>-2.2835593281293587E-2</v>
+      </c>
+      <c r="CE79" s="41"/>
+      <c r="CG79">
+        <v>40816239538</v>
+      </c>
+      <c r="CH79">
+        <v>39439794485</v>
+      </c>
+      <c r="CI79">
+        <v>42192684592</v>
+      </c>
+      <c r="CJ79">
+        <v>38711148487</v>
+      </c>
+      <c r="CK79">
+        <v>42921330590</v>
+      </c>
     </row>
     <row r="80" spans="5:113" x14ac:dyDescent="0.2">
-      <c r="BY80" s="41"/>
+      <c r="BW80" s="46">
+        <v>2025</v>
+      </c>
+      <c r="BX80" s="48">
+        <f t="shared" ref="BX80:BY82" si="9">BX73/1000000</f>
+        <v>44518.485504999997</v>
+      </c>
+      <c r="BY80" s="48">
+        <f t="shared" si="9"/>
+        <v>44029.473322589998</v>
+      </c>
+      <c r="BZ80" s="48">
+        <f t="shared" ref="BZ80:BZ82" si="10">BX80-BY80</f>
+        <v>489.01218240999879</v>
+      </c>
+      <c r="CA80" s="45">
+        <f>BX80/BY80-1</f>
+        <v>1.1106473584799881E-2</v>
+      </c>
+      <c r="CE80" s="41"/>
+      <c r="CG80">
+        <v>41148170690</v>
+      </c>
+      <c r="CH80">
+        <v>39600498135</v>
+      </c>
+      <c r="CI80">
+        <v>42695843246</v>
+      </c>
+      <c r="CJ80">
+        <v>38781209773</v>
+      </c>
+      <c r="CK80">
+        <v>43515131607</v>
+      </c>
     </row>
-    <row r="81" spans="77:77" x14ac:dyDescent="0.2">
-      <c r="BY81" s="41"/>
+    <row r="81" spans="75:89" x14ac:dyDescent="0.2">
+      <c r="BW81" s="46">
+        <v>2026</v>
+      </c>
+      <c r="BX81" s="48">
+        <f t="shared" si="9"/>
+        <v>47875.283979</v>
+      </c>
+      <c r="BY81" s="48">
+        <f t="shared" si="9"/>
+        <v>45265.030408470004</v>
+      </c>
+      <c r="BZ81" s="48">
+        <f t="shared" si="10"/>
+        <v>2610.2535705299961</v>
+      </c>
+      <c r="CA81" s="45">
+        <f>BX81/BY81-1</f>
+        <v>5.7666007224012938E-2</v>
+      </c>
+      <c r="CE81" s="41"/>
+      <c r="CG81">
+        <v>41642315355</v>
+      </c>
+      <c r="CH81">
+        <v>39918682591</v>
+      </c>
+      <c r="CI81">
+        <v>43365948119</v>
+      </c>
+      <c r="CJ81">
+        <v>39006246522</v>
+      </c>
+      <c r="CK81">
+        <v>44278384188</v>
+      </c>
     </row>
-    <row r="82" spans="77:77" x14ac:dyDescent="0.2">
-      <c r="BY82" s="41"/>
+    <row r="82" spans="75:89" x14ac:dyDescent="0.2">
+      <c r="BW82" s="46">
+        <v>2027</v>
+      </c>
+      <c r="BX82" s="48">
+        <f t="shared" si="9"/>
+        <v>51433.764416999999</v>
+      </c>
+      <c r="BY82" s="48">
+        <f t="shared" si="9"/>
+        <v>47446.662717779996</v>
+      </c>
+      <c r="BZ82" s="48">
+        <f t="shared" si="10"/>
+        <v>3987.101699220002</v>
+      </c>
+      <c r="CA82" s="45">
+        <f>BX82/BY82-1</f>
+        <v>8.4033343355166989E-2</v>
+      </c>
+      <c r="CE82" s="41"/>
+      <c r="CG82">
+        <v>42042547122</v>
+      </c>
+      <c r="CH82">
+        <v>40138162053</v>
+      </c>
+      <c r="CI82">
+        <v>43946932191</v>
+      </c>
+      <c r="CJ82">
+        <v>39130041493</v>
+      </c>
+      <c r="CK82">
+        <v>44955052751</v>
+      </c>
     </row>
-    <row r="83" spans="77:77" x14ac:dyDescent="0.2">
+    <row r="83" spans="75:89" x14ac:dyDescent="0.2">
       <c r="BY83" s="41"/>
+      <c r="CE83" s="41"/>
+      <c r="CG83">
+        <v>42500126191</v>
+      </c>
+      <c r="CH83">
+        <v>40410190567</v>
+      </c>
+      <c r="CI83">
+        <v>44590061814</v>
+      </c>
+      <c r="CJ83">
+        <v>39303845477</v>
+      </c>
+      <c r="CK83">
+        <v>45696406904</v>
+      </c>
     </row>
-    <row r="84" spans="77:77" x14ac:dyDescent="0.2">
+    <row r="84" spans="75:89" x14ac:dyDescent="0.2">
       <c r="BY84" s="41"/>
+      <c r="CE84" s="41"/>
+      <c r="CG84">
+        <v>42899174700</v>
+      </c>
+      <c r="CH84">
+        <v>40671996415</v>
+      </c>
+      <c r="CI84">
+        <v>45126352984</v>
+      </c>
+      <c r="CJ84">
+        <v>39492999449</v>
+      </c>
+      <c r="CK84">
+        <v>46305349950</v>
+      </c>
     </row>
-    <row r="85" spans="77:77" x14ac:dyDescent="0.2">
-      <c r="BY85" s="41"/>
+    <row r="85" spans="75:89" x14ac:dyDescent="0.2">
+      <c r="BX85" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="BY85" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="BZ85" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="CA85" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="CE85" s="41"/>
+      <c r="CG85">
+        <v>43213919536</v>
+      </c>
+      <c r="CH85">
+        <v>40867502272</v>
+      </c>
+      <c r="CI85">
+        <v>45560336801</v>
+      </c>
+      <c r="CJ85">
+        <v>39625384002</v>
+      </c>
+      <c r="CK85">
+        <v>46802455070</v>
+      </c>
     </row>
-    <row r="86" spans="77:77" x14ac:dyDescent="0.2">
-      <c r="BY86" s="41"/>
+    <row r="86" spans="75:89" x14ac:dyDescent="0.2">
+      <c r="BW86" s="46">
+        <v>2024</v>
+      </c>
+      <c r="BX86" s="48">
+        <v>40572.588975999999</v>
+      </c>
+      <c r="BY86" s="48">
+        <v>41520.739700539991</v>
+      </c>
+      <c r="BZ86" s="49">
+        <v>-948.15072453999164</v>
+      </c>
+      <c r="CA86" s="45">
+        <v>-2.2835593281293587E-2</v>
+      </c>
+      <c r="CE86" s="41"/>
+      <c r="CG86">
+        <v>43430829049</v>
+      </c>
+      <c r="CH86">
+        <v>40965392090</v>
+      </c>
+      <c r="CI86">
+        <v>45896266008</v>
+      </c>
+      <c r="CJ86">
+        <v>39660268600</v>
+      </c>
+      <c r="CK86">
+        <v>47201389498</v>
+      </c>
     </row>
-    <row r="87" spans="77:77" x14ac:dyDescent="0.2">
-      <c r="BY87" s="41"/>
+    <row r="87" spans="75:89" x14ac:dyDescent="0.2">
+      <c r="BW87" s="46">
+        <v>2025</v>
+      </c>
+      <c r="BX87" s="48">
+        <v>44518.485504999997</v>
+      </c>
+      <c r="BY87" s="48">
+        <v>44029.473322589998</v>
+      </c>
+      <c r="BZ87" s="48">
+        <v>489.01218240999879</v>
+      </c>
+      <c r="CA87" s="45">
+        <v>1.1106473584799881E-2</v>
+      </c>
+      <c r="CE87" s="41"/>
+      <c r="CG87">
+        <v>43700202954</v>
+      </c>
+      <c r="CH87">
+        <v>41115805783</v>
+      </c>
+      <c r="CI87">
+        <v>46284600124</v>
+      </c>
+      <c r="CJ87">
+        <v>39747708562</v>
+      </c>
+      <c r="CK87">
+        <v>47652697345</v>
+      </c>
     </row>
-    <row r="88" spans="77:77" x14ac:dyDescent="0.2">
-      <c r="BY88" s="41"/>
+    <row r="88" spans="75:89" x14ac:dyDescent="0.2">
+      <c r="BW88" s="46">
+        <v>2026</v>
+      </c>
+      <c r="BX88" s="48">
+        <v>47875.283979</v>
+      </c>
+      <c r="BY88" s="48">
+        <v>45265.030408470004</v>
+      </c>
+      <c r="BZ88" s="48">
+        <v>2610.2535705299961</v>
+      </c>
+      <c r="CA88" s="45">
+        <v>5.7666007224012938E-2</v>
+      </c>
+      <c r="CE88" s="41"/>
+      <c r="CG88">
+        <v>43989154183</v>
+      </c>
+      <c r="CH88">
+        <v>41285724631</v>
+      </c>
+      <c r="CI88">
+        <v>46692583734</v>
+      </c>
+      <c r="CJ88">
+        <v>39854615474</v>
+      </c>
+      <c r="CK88">
+        <v>48123692891</v>
+      </c>
     </row>
-    <row r="89" spans="77:77" x14ac:dyDescent="0.2">
-      <c r="BY89" s="41"/>
+    <row r="89" spans="75:89" x14ac:dyDescent="0.2">
+      <c r="BW89" s="46">
+        <v>2027</v>
+      </c>
+      <c r="BX89" s="48">
+        <v>51433.764416999999</v>
+      </c>
+      <c r="BY89" s="48">
+        <v>47446.662717779996</v>
+      </c>
+      <c r="BZ89" s="48">
+        <v>3987.101699220002</v>
+      </c>
+      <c r="CA89" s="45">
+        <v>8.4033343355166989E-2</v>
+      </c>
+      <c r="CE89" s="41"/>
+      <c r="CG89">
+        <v>44230191982</v>
+      </c>
+      <c r="CH89">
+        <v>41407548438</v>
+      </c>
+      <c r="CI89">
+        <v>47052835527</v>
+      </c>
+      <c r="CJ89">
+        <v>39913331204</v>
+      </c>
+      <c r="CK89">
+        <v>48547052760</v>
+      </c>
     </row>
-    <row r="90" spans="77:77" x14ac:dyDescent="0.2">
+    <row r="90" spans="75:89" x14ac:dyDescent="0.2">
       <c r="BY90" s="41"/>
+      <c r="CE90" s="41"/>
+      <c r="CG90">
+        <v>44518485505</v>
+      </c>
+      <c r="CH90">
+        <v>41576354676</v>
+      </c>
+      <c r="CI90">
+        <v>47460616333</v>
+      </c>
+      <c r="CJ90">
+        <v>40018884695</v>
+      </c>
+      <c r="CK90">
+        <v>49018086315</v>
+      </c>
     </row>
-    <row r="91" spans="77:77" x14ac:dyDescent="0.2">
+    <row r="91" spans="75:89" x14ac:dyDescent="0.2">
       <c r="BY91" s="41"/>
+      <c r="CE91" s="41"/>
+      <c r="CG91">
+        <v>44772336100</v>
+      </c>
+      <c r="CH91">
+        <v>41710367386</v>
+      </c>
+      <c r="CI91">
+        <v>47834304814</v>
+      </c>
+      <c r="CJ91">
+        <v>40089459060</v>
+      </c>
+      <c r="CK91">
+        <v>49455213140</v>
+      </c>
     </row>
-    <row r="92" spans="77:77" x14ac:dyDescent="0.2">
+    <row r="92" spans="75:89" x14ac:dyDescent="0.2">
       <c r="BY92" s="41"/>
+      <c r="CE92" s="41"/>
+      <c r="CG92">
+        <v>45001838836</v>
+      </c>
+      <c r="CH92">
+        <v>41819616072</v>
+      </c>
+      <c r="CI92">
+        <v>48184061599</v>
+      </c>
+      <c r="CJ92">
+        <v>40135049098</v>
+      </c>
+      <c r="CK92">
+        <v>49868628573</v>
+      </c>
     </row>
-    <row r="93" spans="77:77" x14ac:dyDescent="0.2">
-      <c r="BY93" s="41"/>
+    <row r="93" spans="75:89" x14ac:dyDescent="0.2">
+      <c r="BX93" s="46">
+        <v>2024</v>
+      </c>
+      <c r="BY93" s="46">
+        <v>2025</v>
+      </c>
+      <c r="BZ93" s="46">
+        <v>2026</v>
+      </c>
+      <c r="CA93" s="46">
+        <v>2027</v>
+      </c>
+      <c r="CE93" s="41"/>
+      <c r="CG93">
+        <v>45271431584</v>
+      </c>
+      <c r="CH93">
+        <v>41968482733</v>
+      </c>
+      <c r="CI93">
+        <v>48574380434</v>
+      </c>
+      <c r="CJ93">
+        <v>40220007230</v>
+      </c>
+      <c r="CK93">
+        <v>50322855938</v>
+      </c>
     </row>
-    <row r="94" spans="77:77" x14ac:dyDescent="0.2">
-      <c r="BY94" s="41"/>
+    <row r="94" spans="75:89" x14ac:dyDescent="0.2">
+      <c r="BW94" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="BX94" s="48">
+        <v>40572.588975999999</v>
+      </c>
+      <c r="BY94" s="48">
+        <v>44518.485504999997</v>
+      </c>
+      <c r="BZ94" s="48">
+        <v>47875.283979</v>
+      </c>
+      <c r="CA94" s="48">
+        <v>51433.764416999999</v>
+      </c>
+      <c r="CE94" s="41"/>
+      <c r="CG94">
+        <v>45544136081</v>
+      </c>
+      <c r="CH94">
+        <v>42119941295</v>
+      </c>
+      <c r="CI94">
+        <v>48968330868</v>
+      </c>
+      <c r="CJ94">
+        <v>40307282069</v>
+      </c>
+      <c r="CK94">
+        <v>50780990094</v>
+      </c>
     </row>
-    <row r="95" spans="77:77" x14ac:dyDescent="0.2">
-      <c r="BY95" s="41"/>
+    <row r="95" spans="75:89" x14ac:dyDescent="0.2">
+      <c r="BW95" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="BX95" s="48">
+        <v>41520.739700539991</v>
+      </c>
+      <c r="BY95" s="48">
+        <v>44029.473322589998</v>
+      </c>
+      <c r="BZ95" s="48">
+        <v>45265.030408470004</v>
+      </c>
+      <c r="CA95" s="48">
+        <v>47446.662717779996</v>
+      </c>
+      <c r="CE95" s="41"/>
+      <c r="CG95">
+        <v>45735143263</v>
+      </c>
+      <c r="CH95">
+        <v>42189141631</v>
+      </c>
+      <c r="CI95">
+        <v>49281144894</v>
+      </c>
+      <c r="CJ95">
+        <v>40312001757</v>
+      </c>
+      <c r="CK95">
+        <v>51158284768</v>
+      </c>
     </row>
-    <row r="96" spans="77:77" x14ac:dyDescent="0.2">
-      <c r="BY96" s="41"/>
+    <row r="96" spans="75:89" x14ac:dyDescent="0.2">
+      <c r="BW96" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="BX96" s="49">
+        <v>-948.15072453999164</v>
+      </c>
+      <c r="BY96" s="48">
+        <v>489.01218240999879</v>
+      </c>
+      <c r="BZ96" s="48">
+        <v>2610.2535705299961</v>
+      </c>
+      <c r="CA96" s="48">
+        <v>3987.101699220002</v>
+      </c>
+      <c r="CE96" s="41"/>
+      <c r="CG96">
+        <v>45927998000</v>
+      </c>
+      <c r="CH96">
+        <v>42259760194</v>
+      </c>
+      <c r="CI96">
+        <v>49596235806</v>
+      </c>
+      <c r="CJ96">
+        <v>40317912397</v>
+      </c>
+      <c r="CK96">
+        <v>51538083603</v>
+      </c>
     </row>
-    <row r="97" spans="77:77" x14ac:dyDescent="0.2">
-      <c r="BY97" s="41"/>
+    <row r="97" spans="75:89" x14ac:dyDescent="0.2">
+      <c r="BW97" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="BX97" s="45">
+        <v>-2.2835593281293587E-2</v>
+      </c>
+      <c r="BY97" s="45">
+        <v>1.1106473584799881E-2</v>
+      </c>
+      <c r="BZ97" s="45">
+        <v>5.7666007224012938E-2</v>
+      </c>
+      <c r="CA97" s="45">
+        <v>8.4033343355166989E-2</v>
+      </c>
+      <c r="CE97" s="41"/>
+      <c r="CG97">
+        <v>46223207434</v>
+      </c>
+      <c r="CH97">
+        <v>42432194261</v>
+      </c>
+      <c r="CI97">
+        <v>50014220606</v>
+      </c>
+      <c r="CJ97">
+        <v>40425353112</v>
+      </c>
+      <c r="CK97">
+        <v>52021061756</v>
+      </c>
     </row>
-    <row r="98" spans="77:77" x14ac:dyDescent="0.2">
+    <row r="98" spans="75:89" x14ac:dyDescent="0.2">
       <c r="BY98" s="41"/>
+      <c r="CE98" s="41"/>
+      <c r="CG98">
+        <v>46524480115</v>
+      </c>
+      <c r="CH98">
+        <v>42610064557</v>
+      </c>
+      <c r="CI98">
+        <v>50438895674</v>
+      </c>
+      <c r="CJ98">
+        <v>40537898130</v>
+      </c>
+      <c r="CK98">
+        <v>52511062101</v>
+      </c>
     </row>
-    <row r="99" spans="77:77" x14ac:dyDescent="0.2">
+    <row r="99" spans="75:89" x14ac:dyDescent="0.2">
       <c r="BY99" s="41"/>
+      <c r="CE99" s="41"/>
+      <c r="CG99">
+        <v>46852301108</v>
+      </c>
+      <c r="CH99">
+        <v>42813832106</v>
+      </c>
+      <c r="CI99">
+        <v>50890770110</v>
+      </c>
+      <c r="CJ99">
+        <v>40675995753</v>
+      </c>
+      <c r="CK99">
+        <v>53028606463</v>
+      </c>
     </row>
-    <row r="100" spans="77:77" x14ac:dyDescent="0.2">
+    <row r="100" spans="75:89" x14ac:dyDescent="0.2">
       <c r="BY100" s="41"/>
+      <c r="CE100" s="41"/>
+      <c r="CG100">
+        <v>47242897933</v>
+      </c>
+      <c r="CH100">
+        <v>43079703555</v>
+      </c>
+      <c r="CI100">
+        <v>51406092312</v>
+      </c>
+      <c r="CJ100">
+        <v>40875841576</v>
+      </c>
+      <c r="CK100">
+        <v>53609954291</v>
+      </c>
     </row>
-    <row r="101" spans="77:77" x14ac:dyDescent="0.2">
+    <row r="101" spans="75:89" x14ac:dyDescent="0.2">
       <c r="BY101" s="41"/>
+      <c r="CE101" s="41"/>
+      <c r="CG101">
+        <v>47613532435</v>
+      </c>
+      <c r="CH101">
+        <v>43324922611</v>
+      </c>
+      <c r="CI101">
+        <v>51902142259</v>
+      </c>
+      <c r="CJ101">
+        <v>41054669706</v>
+      </c>
+      <c r="CK101">
+        <v>54172395164</v>
+      </c>
     </row>
-    <row r="102" spans="77:77" x14ac:dyDescent="0.2">
+    <row r="102" spans="75:89" x14ac:dyDescent="0.2">
       <c r="BY102" s="41"/>
+      <c r="CE102" s="41"/>
+      <c r="CG102">
+        <v>47875283979</v>
+      </c>
+      <c r="CH102">
+        <v>43460552883</v>
+      </c>
+      <c r="CI102">
+        <v>52290015075</v>
+      </c>
+      <c r="CJ102">
+        <v>41123535409</v>
+      </c>
+      <c r="CK102">
+        <v>54627032549</v>
+      </c>
     </row>
-    <row r="103" spans="77:77" x14ac:dyDescent="0.2">
+    <row r="103" spans="75:89" x14ac:dyDescent="0.2">
       <c r="BY103" s="41"/>
+      <c r="CE103" s="41"/>
+      <c r="CG103">
+        <v>48223797474</v>
+      </c>
+      <c r="CH103">
+        <v>43682225595</v>
+      </c>
+      <c r="CI103">
+        <v>52765369352</v>
+      </c>
+      <c r="CJ103">
+        <v>41278062667</v>
+      </c>
+      <c r="CK103">
+        <v>55169532280</v>
+      </c>
     </row>
-    <row r="104" spans="77:77" x14ac:dyDescent="0.2">
+    <row r="104" spans="75:89" x14ac:dyDescent="0.2">
       <c r="BY104" s="41"/>
+      <c r="CE104" s="41"/>
+      <c r="CG104">
+        <v>48551296155</v>
+      </c>
+      <c r="CH104">
+        <v>43882152115</v>
+      </c>
+      <c r="CI104">
+        <v>53220440195</v>
+      </c>
+      <c r="CJ104">
+        <v>41410456565</v>
+      </c>
+      <c r="CK104">
+        <v>55692135745</v>
+      </c>
     </row>
-    <row r="105" spans="77:77" x14ac:dyDescent="0.2">
+    <row r="105" spans="75:89" x14ac:dyDescent="0.2">
       <c r="BY105" s="41"/>
+      <c r="CE105" s="41"/>
+      <c r="CG105">
+        <v>48785720289</v>
+      </c>
+      <c r="CH105">
+        <v>43988262436</v>
+      </c>
+      <c r="CI105">
+        <v>53583178143</v>
+      </c>
+      <c r="CJ105">
+        <v>41448641655</v>
+      </c>
+      <c r="CK105">
+        <v>56122798923</v>
+      </c>
     </row>
-    <row r="106" spans="77:77" x14ac:dyDescent="0.2">
+    <row r="106" spans="75:89" x14ac:dyDescent="0.2">
       <c r="BY106" s="41"/>
+      <c r="CE106" s="41"/>
+      <c r="CG106">
+        <v>49057130936</v>
+      </c>
+      <c r="CH106">
+        <v>44130608744</v>
+      </c>
+      <c r="CI106">
+        <v>53983653129</v>
+      </c>
+      <c r="CJ106">
+        <v>41522665429</v>
+      </c>
+      <c r="CK106">
+        <v>56591596444</v>
+      </c>
+    </row>
+    <row r="107" spans="75:89" x14ac:dyDescent="0.2">
+      <c r="CE107" s="41"/>
+      <c r="CG107">
+        <v>49357186096</v>
+      </c>
+      <c r="CH107">
+        <v>44300841404</v>
+      </c>
+      <c r="CI107">
+        <v>54413530788</v>
+      </c>
+      <c r="CJ107">
+        <v>41624174210</v>
+      </c>
+      <c r="CK107">
+        <v>57090197983</v>
+      </c>
+    </row>
+    <row r="108" spans="75:89" x14ac:dyDescent="0.2">
+      <c r="CE108" s="41"/>
+      <c r="CG108">
+        <v>49680351792</v>
+      </c>
+      <c r="CH108">
+        <v>44479835201</v>
+      </c>
+      <c r="CI108">
+        <v>54880868383</v>
+      </c>
+      <c r="CJ108">
+        <v>41726848014</v>
+      </c>
+      <c r="CK108">
+        <v>57633855570</v>
+      </c>
+    </row>
+    <row r="109" spans="75:89" x14ac:dyDescent="0.2">
+      <c r="CE109" s="41"/>
+      <c r="CG109">
+        <v>49972800738</v>
+      </c>
+      <c r="CH109">
+        <v>44619787360</v>
+      </c>
+      <c r="CI109">
+        <v>55325814116</v>
+      </c>
+      <c r="CJ109">
+        <v>41786073249</v>
+      </c>
+      <c r="CK109">
+        <v>58159528227</v>
+      </c>
+    </row>
+    <row r="110" spans="75:89" x14ac:dyDescent="0.2">
+      <c r="CE110" s="41"/>
+      <c r="CG110">
+        <v>50301969565</v>
+      </c>
+      <c r="CH110">
+        <v>44793250947</v>
+      </c>
+      <c r="CI110">
+        <v>55810688184</v>
+      </c>
+      <c r="CJ110">
+        <v>41877111461</v>
+      </c>
+      <c r="CK110">
+        <v>58726827670</v>
+      </c>
+    </row>
+    <row r="111" spans="75:89" x14ac:dyDescent="0.2">
+      <c r="CE111" s="41"/>
+      <c r="CG111">
+        <v>50592315729</v>
+      </c>
+      <c r="CH111">
+        <v>44924768763</v>
+      </c>
+      <c r="CI111">
+        <v>56259862695</v>
+      </c>
+      <c r="CJ111">
+        <v>41924550629</v>
+      </c>
+      <c r="CK111">
+        <v>59260080830</v>
+      </c>
+    </row>
+    <row r="112" spans="75:89" x14ac:dyDescent="0.2">
+      <c r="CE112" s="41"/>
+      <c r="CG112">
+        <v>50834232796</v>
+      </c>
+      <c r="CH112">
+        <v>45004815533</v>
+      </c>
+      <c r="CI112">
+        <v>56663650060</v>
+      </c>
+      <c r="CJ112">
+        <v>41918908439</v>
+      </c>
+      <c r="CK112">
+        <v>59749557154</v>
+      </c>
+    </row>
+    <row r="113" spans="83:89" x14ac:dyDescent="0.2">
+      <c r="CE113" s="41"/>
+      <c r="CG113">
+        <v>51108855143</v>
+      </c>
+      <c r="CH113">
+        <v>45114602737</v>
+      </c>
+      <c r="CI113">
+        <v>57103107549</v>
+      </c>
+      <c r="CJ113">
+        <v>41941437189</v>
+      </c>
+      <c r="CK113">
+        <v>60276273097</v>
+      </c>
+    </row>
+    <row r="114" spans="83:89" x14ac:dyDescent="0.2">
+      <c r="CE114" s="51"/>
+      <c r="CG114">
+        <v>51433764417</v>
+      </c>
+      <c r="CH114">
+        <v>45271785233</v>
+      </c>
+      <c r="CI114">
+        <v>57595743601</v>
+      </c>
+      <c r="CJ114">
+        <v>42009830493</v>
+      </c>
+      <c r="CK114">
+        <v>60857698341</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -23037,6 +24009,21 @@
     <mergeCell ref="C24:E24"/>
   </mergeCells>
   <conditionalFormatting sqref="BX72:CA75">
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BX79:CA82">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BX86:CA89">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BX94:CA97">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -23072,11 +24059,11 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
       <c r="F2" s="3">
         <v>202401</v>
       </c>
@@ -23226,11 +24213,11 @@
       <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
       <c r="F3" s="5">
         <v>4615347507.3500004</v>
       </c>
@@ -23381,10 +24368,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="7"/>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="43"/>
+      <c r="E4" s="52"/>
       <c r="F4" s="8">
         <v>3129974914.75</v>
       </c>
@@ -24305,10 +25292,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="7"/>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="43"/>
+      <c r="E10" s="52"/>
       <c r="F10" s="8">
         <v>139544254.77000001</v>
       </c>
@@ -24459,10 +25446,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="7"/>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="43"/>
+      <c r="E11" s="52"/>
       <c r="F11" s="8">
         <v>152791256.61000001</v>
       </c>
@@ -24921,10 +25908,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="7"/>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="43"/>
+      <c r="E14" s="52"/>
       <c r="F14" s="8">
         <v>181065.89</v>
       </c>
@@ -25075,10 +26062,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="7"/>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="43"/>
+      <c r="E15" s="52"/>
       <c r="F15" s="8">
         <v>0</v>
       </c>
@@ -25229,10 +26216,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="7"/>
-      <c r="D16" s="43" t="s">
+      <c r="D16" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="43"/>
+      <c r="E16" s="52"/>
       <c r="F16" s="8">
         <v>14313311.48</v>
       </c>
@@ -25383,10 +26370,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="7"/>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="43"/>
+      <c r="E17" s="52"/>
       <c r="F17" s="8">
         <v>889652482.15999997</v>
       </c>
@@ -26307,10 +27294,10 @@
         <v>21</v>
       </c>
       <c r="C23" s="7"/>
-      <c r="D23" s="43" t="s">
+      <c r="D23" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="43"/>
+      <c r="E23" s="52"/>
       <c r="F23" s="8">
         <v>288890221.69</v>
       </c>
@@ -26460,11 +27447,11 @@
       <c r="B24" s="4">
         <v>22</v>
       </c>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
       <c r="F24" s="5">
         <v>1371080141.25</v>
       </c>
@@ -26615,10 +27602,10 @@
         <v>23</v>
       </c>
       <c r="C25" s="12"/>
-      <c r="D25" s="43" t="s">
+      <c r="D25" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="43"/>
+      <c r="E25" s="52"/>
       <c r="F25" s="8">
         <v>725444512.70000005</v>
       </c>
@@ -27693,10 +28680,10 @@
         <v>30</v>
       </c>
       <c r="C32" s="12"/>
-      <c r="D32" s="43" t="s">
+      <c r="D32" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="43"/>
+      <c r="E32" s="52"/>
       <c r="F32" s="8">
         <v>138438409.96000001</v>
       </c>
@@ -27847,10 +28834,10 @@
         <v>31</v>
       </c>
       <c r="C33" s="12"/>
-      <c r="D33" s="43" t="s">
+      <c r="D33" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="43"/>
+      <c r="E33" s="52"/>
       <c r="F33" s="8">
         <v>27942286.579999998</v>
       </c>
@@ -28001,10 +28988,10 @@
         <v>32</v>
       </c>
       <c r="C34" s="12"/>
-      <c r="D34" s="43" t="s">
+      <c r="D34" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="43"/>
+      <c r="E34" s="52"/>
       <c r="F34" s="8">
         <v>2674984.7799999998</v>
       </c>
@@ -28155,10 +29142,10 @@
         <v>33</v>
       </c>
       <c r="C35" s="12"/>
-      <c r="D35" s="43" t="s">
+      <c r="D35" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="43"/>
+      <c r="E35" s="52"/>
       <c r="F35" s="15">
         <v>476579947.23000002</v>
       </c>
@@ -29752,11 +30739,11 @@
       <c r="B46" s="4">
         <v>44</v>
       </c>
-      <c r="C46" s="46" t="s">
+      <c r="C46" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="46"/>
-      <c r="E46" s="46"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
       <c r="F46" s="5">
         <v>3244267366.0999999</v>
       </c>
@@ -29964,11 +30951,11 @@
       <c r="B48" s="4">
         <v>46</v>
       </c>
-      <c r="C48" s="47" t="s">
+      <c r="C48" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
       <c r="F48" s="20">
         <v>3244267366.0999999</v>
       </c>
@@ -30176,11 +31163,11 @@
       <c r="B50" s="4">
         <v>48</v>
       </c>
-      <c r="C50" s="47" t="s">
+      <c r="C50" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="D50" s="47"/>
-      <c r="E50" s="47"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="56"/>
       <c r="F50" s="20">
         <v>3244267366.0999999</v>
       </c>
@@ -30381,11 +31368,11 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
       <c r="F2" s="3">
         <v>201901</v>
       </c>
@@ -30583,11 +31570,11 @@
       <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
       <c r="F3" s="5">
         <v>2615228599.48</v>
       </c>
@@ -30786,10 +31773,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="7"/>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="43"/>
+      <c r="E4" s="52"/>
       <c r="F4" s="8">
         <v>1867686994.49</v>
       </c>
@@ -31998,10 +32985,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="7"/>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="43"/>
+      <c r="E10" s="52"/>
       <c r="F10" s="8">
         <v>99153847.969999999</v>
       </c>
@@ -32200,10 +33187,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="7"/>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="43"/>
+      <c r="E11" s="52"/>
       <c r="F11" s="8">
         <v>11535985.5</v>
       </c>
@@ -32806,10 +33793,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="7"/>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="43"/>
+      <c r="E14" s="52"/>
       <c r="F14" s="8">
         <v>0</v>
       </c>
@@ -33008,10 +33995,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="7"/>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="43"/>
+      <c r="E15" s="52"/>
       <c r="F15" s="8">
         <v>0</v>
       </c>
@@ -33210,10 +34197,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="7"/>
-      <c r="D16" s="43" t="s">
+      <c r="D16" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="43"/>
+      <c r="E16" s="52"/>
       <c r="F16" s="8">
         <v>72367508.560000002</v>
       </c>
@@ -33412,10 +34399,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="7"/>
-      <c r="D17" s="43" t="s">
+      <c r="D17" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="43"/>
+      <c r="E17" s="52"/>
       <c r="F17" s="8">
         <v>491782470.01999998</v>
       </c>
@@ -34624,10 +35611,10 @@
         <v>21</v>
       </c>
       <c r="C23" s="7"/>
-      <c r="D23" s="43" t="s">
+      <c r="D23" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="43"/>
+      <c r="E23" s="52"/>
       <c r="F23" s="8">
         <v>72701792.939999998</v>
       </c>
@@ -34825,11 +35812,11 @@
       <c r="B24" s="4">
         <v>22</v>
       </c>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
       <c r="F24" s="5">
         <v>752001511.88999999</v>
       </c>
@@ -35028,10 +36015,10 @@
         <v>23</v>
       </c>
       <c r="C25" s="12"/>
-      <c r="D25" s="43" t="s">
+      <c r="D25" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="43"/>
+      <c r="E25" s="52"/>
       <c r="F25" s="8">
         <v>382257583.66000003</v>
       </c>
@@ -36360,10 +37347,10 @@
         <v>30</v>
       </c>
       <c r="C32" s="12"/>
-      <c r="D32" s="43" t="s">
+      <c r="D32" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="43"/>
+      <c r="E32" s="52"/>
       <c r="F32" s="8">
         <v>98620408.819999993</v>
       </c>
@@ -36562,10 +37549,10 @@
         <v>31</v>
       </c>
       <c r="C33" s="12"/>
-      <c r="D33" s="43" t="s">
+      <c r="D33" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="43"/>
+      <c r="E33" s="52"/>
       <c r="F33" s="8">
         <v>1552979.09</v>
       </c>
@@ -36764,10 +37751,10 @@
         <v>32</v>
       </c>
       <c r="C34" s="12"/>
-      <c r="D34" s="43" t="s">
+      <c r="D34" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="43"/>
+      <c r="E34" s="52"/>
       <c r="F34" s="8">
         <v>0</v>
       </c>
@@ -36966,10 +37953,10 @@
         <v>33</v>
       </c>
       <c r="C35" s="12"/>
-      <c r="D35" s="43" t="s">
+      <c r="D35" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="43"/>
+      <c r="E35" s="52"/>
       <c r="F35" s="15">
         <v>269570540.31999999</v>
       </c>
@@ -39037,11 +40024,11 @@
       <c r="B46" s="4">
         <v>44</v>
       </c>
-      <c r="C46" s="46" t="s">
+      <c r="C46" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="46"/>
-      <c r="E46" s="46"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
       <c r="F46" s="5">
         <v>1863227087.5899999</v>
       </c>
@@ -39433,11 +40420,11 @@
       <c r="B48" s="4">
         <v>46</v>
       </c>
-      <c r="C48" s="47" t="s">
+      <c r="C48" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="D48" s="47"/>
-      <c r="E48" s="47"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
       <c r="F48" s="20">
         <v>1863227087.5899999</v>
       </c>
@@ -39829,11 +40816,11 @@
       <c r="B50" s="4">
         <v>48</v>
       </c>
-      <c r="C50" s="47" t="s">
+      <c r="C50" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="D50" s="47"/>
-      <c r="E50" s="47"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="56"/>
       <c r="F50" s="20">
         <v>1863227087.5899999</v>
       </c>

--- a/Projecao_RCL_cen323.xlsx
+++ b/Projecao_RCL_cen323.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="73">
   <si>
     <t>CAMPO</t>
   </si>
@@ -232,6 +232,15 @@
   <si>
     <t>Diferença</t>
   </si>
+  <si>
+    <t>Previsão (GEPAR 323 + ARIMA)</t>
+  </si>
+  <si>
+    <t>Previsão (PIB + IPCA)</t>
+  </si>
+  <si>
+    <t>Focus 21/06/2024</t>
+  </si>
 </sst>
 </file>
 
@@ -316,7 +325,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,12 +378,6 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF002240"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -449,7 +452,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -575,8 +578,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -586,12 +592,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2008,8 +2008,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="725629144"/>
-        <c:axId val="725629928"/>
+        <c:axId val="735332120"/>
+        <c:axId val="735333688"/>
       </c:areaChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3366,11 +3366,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="725629144"/>
-        <c:axId val="725629928"/>
+        <c:axId val="735332120"/>
+        <c:axId val="735333688"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="725629144"/>
+        <c:axId val="735332120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3413,14 +3413,14 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="725629928"/>
+        <c:crossAx val="735333688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="months"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="725629928"/>
+        <c:axId val="735333688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="20000000000"/>
@@ -3460,7 +3460,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="725629144"/>
+        <c:crossAx val="735332120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:dispUnits>
@@ -3567,7 +3567,1175 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1800" b="1"/>
+              <a:t>RCL</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1100"/>
+              <a:t>(Em R$ bilhões)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.6317166875879646E-2"/>
+          <c:y val="9.8921694211573374E-2"/>
+          <c:w val="0.93242679447677734"/>
+          <c:h val="0.79177672690057277"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RCL (Consolidado)'!$E$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RCL (Realizado s/ Ajuste)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'RCL (Consolidado)'!$Q$2:$DI$2</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="97"/>
+                <c:pt idx="0">
+                  <c:v>43800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43831</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43862</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43891</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44197</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44228</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44256</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44287</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44317</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44348</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44378</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44409</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44440</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44470</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44501</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44531</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44562</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44593</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44621</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44652</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44682</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44713</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44743</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44774</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44805</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44835</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44866</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44896</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44927</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44958</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44986</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45017</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45047</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45078</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>45108</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45139</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45170</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45200</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45231</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45261</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45292</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45323</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45352</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45383</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45413</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45444</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45474</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>45505</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>45536</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>45566</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>45597</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>45627</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>45658</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>45689</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>45717</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>45748</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>45778</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>45809</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>45839</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>45870</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>45901</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>45931</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>45962</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>45992</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>46023</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>46054</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>46082</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>46113</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>46143</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>46174</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>46204</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>46235</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>46266</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>46296</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>46327</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>46357</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>46388</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>46419</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>46447</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>46478</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>46508</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>46539</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>46569</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>46600</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>46631</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>46661</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>46692</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>46722</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'RCL (Consolidado)'!$Q$59:$DI$59</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="97"/>
+                <c:pt idx="0">
+                  <c:v>24538621316.629997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24710481157.709999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24795327536.429996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24981443610.449997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24656181038.970005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24232538455.890003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24580721966.560001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24968835151.410004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25627246851.740002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25939840625.250004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26188599364.100006</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26471063872.590004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26323342281.459995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26729466442.099995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>27119939916.529995</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27532345059.119991</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>28271575672.559994</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>28975081376.659992</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>29277832389.64999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>29500156412.109989</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>29706812863.429985</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30038711645.079987</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30471033514.119984</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>30945546135.799984</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31545320020.199997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>31829888387.459999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>32333911024.609993</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32813361643.369999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33372360273.259998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34253161879.179996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>34897480019.099998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36433131951.970001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>36421583196.849998</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>36611510785.770004</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>36890669787.07</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36979456565</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37208349134.319992</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37383874446.379997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>37385798447.43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>37619323304.590004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>37861235583.910004</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>37633320557.540001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>37416556452.629997</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>36412268706.770004</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>36620725187.709999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>36920007601.290001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>37449817173.510002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>38121106013.18</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>38407128875.349998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>38750091472.82</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>39028769955.299995</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>38899265910.469994</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>39045234936.590004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2FDD-4FFC-AC3F-9A3FF6A6B69E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RCL (Consolidado)'!$E$70</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Previsão (GEPAR 323 + ARIMA)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'RCL (Consolidado)'!$Q$70:$DI$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="97"/>
+                <c:pt idx="53" formatCode="#,##0.00">
+                  <c:v>39605290813.07</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="#,##0.00">
+                  <c:v>40033003482.220001</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="#,##0.00">
+                  <c:v>40465205419.699997</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="#,##0.00">
+                  <c:v>40801096382.130005</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="#,##0.00">
+                  <c:v>41006466829.5</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="#,##0.00">
+                  <c:v>41190076665.660004</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="#,##0.00">
+                  <c:v>41131422009.380005</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="#,##0.00">
+                  <c:v>41520739700.539993</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="#,##0.00">
+                  <c:v>41856204069.990005</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="#,##0.00">
+                  <c:v>42190891117.870003</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="#,##0.00">
+                  <c:v>42788725116.120003</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="#,##0.00">
+                  <c:v>42982154586.779991</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="#,##0.00">
+                  <c:v>43134805645.149994</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="#,##0.00">
+                  <c:v>43225305169.889999</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="#,##0.00">
+                  <c:v>43326750889.080002</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="#,##0.00">
+                  <c:v>43472019927.860008</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="#,##0.00">
+                  <c:v>43669541474.710007</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="#,##0.00">
+                  <c:v>43876892706.700005</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="#,##0.00">
+                  <c:v>44063794546.549995</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="#,##0.00">
+                  <c:v>44029473322.589996</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>44772336100</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>45001838836</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>45271431584</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>45544136081</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>45735143263</c:v>
+                </c:pt>
+                <c:pt idx="78" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>45927998000</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>46223207434</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>46524480115</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>46852301108</c:v>
+                </c:pt>
+                <c:pt idx="82" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>47242897933</c:v>
+                </c:pt>
+                <c:pt idx="83" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>47613532435</c:v>
+                </c:pt>
+                <c:pt idx="84" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>47875283979</c:v>
+                </c:pt>
+                <c:pt idx="85" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>48223797474</c:v>
+                </c:pt>
+                <c:pt idx="86" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>48551296155</c:v>
+                </c:pt>
+                <c:pt idx="87" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>48785720289</c:v>
+                </c:pt>
+                <c:pt idx="88" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>49057130936</c:v>
+                </c:pt>
+                <c:pt idx="89" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>49357186096</c:v>
+                </c:pt>
+                <c:pt idx="90" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>49680351792</c:v>
+                </c:pt>
+                <c:pt idx="91" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>49972800738</c:v>
+                </c:pt>
+                <c:pt idx="92" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>50301969565</c:v>
+                </c:pt>
+                <c:pt idx="93" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>50592315729</c:v>
+                </c:pt>
+                <c:pt idx="94" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>50834232796</c:v>
+                </c:pt>
+                <c:pt idx="95" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>51108855143</c:v>
+                </c:pt>
+                <c:pt idx="96" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>51433764417</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RCL (Consolidado)'!$E$71</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Previsão (PIB + IPCA)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'RCL (Consolidado)'!$Q$71:$DI$71</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="97"/>
+                <c:pt idx="53" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>39045234936.09584</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>39045234935.601677</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>39045234935.107513</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>39045234934.61335</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>39045234934.119186</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>39045234933.625023</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>39045234933.130859</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>39045234932.636696</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>39045234932.124199</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>39045234931.611702</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>39045234931.099205</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>39045234930.586708</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>39045234930.074211</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>39045234929.561714</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>39045234929.049217</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>39045234928.53672</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>39045234928.024223</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>39045234927.511726</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>39045234926.999229</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>39045234926.486732</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>39045234925.9534</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>39045234925.420067</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>39045234924.886734</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>39045234924.353401</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>39045234923.820068</c:v>
+                </c:pt>
+                <c:pt idx="78" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>39045234923.286736</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>39045234922.753403</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>39045234922.22007</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>39045234921.686737</c:v>
+                </c:pt>
+                <c:pt idx="82" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>39045234921.153404</c:v>
+                </c:pt>
+                <c:pt idx="83" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>39045234920.620071</c:v>
+                </c:pt>
+                <c:pt idx="84" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>39045234920.086739</c:v>
+                </c:pt>
+                <c:pt idx="85" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>39045234919.545074</c:v>
+                </c:pt>
+                <c:pt idx="86" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>39045234919.00341</c:v>
+                </c:pt>
+                <c:pt idx="87" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>39045234918.461746</c:v>
+                </c:pt>
+                <c:pt idx="88" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>39045234917.920082</c:v>
+                </c:pt>
+                <c:pt idx="89" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>39045234917.378418</c:v>
+                </c:pt>
+                <c:pt idx="90" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>39045234916.836754</c:v>
+                </c:pt>
+                <c:pt idx="91" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>39045234916.29509</c:v>
+                </c:pt>
+                <c:pt idx="92" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>39045234915.753426</c:v>
+                </c:pt>
+                <c:pt idx="93" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>39045234915.211761</c:v>
+                </c:pt>
+                <c:pt idx="94" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>39045234914.670097</c:v>
+                </c:pt>
+                <c:pt idx="95" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>39045234914.128433</c:v>
+                </c:pt>
+                <c:pt idx="96" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)">
+                  <c:v>39045234913.586769</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="741770560"/>
+        <c:axId val="741770952"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="741770560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="741770952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="741770952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="20000000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg2"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="741770560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:dispUnits>
+          <c:builtInUnit val="billions"/>
+        </c:dispUnits>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4123,27 +5291,543 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>67</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:colOff>340416</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>155712</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>73</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>16566</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>41412</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{227DCE32-60A9-4E74-B6D8-376D7323D606}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{227DCE32-60A9-4E74-B6D8-376D7323D606}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4158,6 +5842,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>343729</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>92764</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>19879</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>144117</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{227DCE32-60A9-4E74-B6D8-376D7323D606}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4429,13 +6151,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:DI114"/>
+  <dimension ref="B1:DI141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="BP65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="BN53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BS64" sqref="BS64"/>
+      <selection pane="bottomRight" activeCell="BT71" sqref="BT71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4573,11 +6295,11 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="55"/>
       <c r="F2" s="38">
         <v>43466</v>
       </c>
@@ -4907,11 +6629,11 @@
       <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
       <c r="F3" s="37">
         <v>2615228599.48</v>
       </c>
@@ -5242,10 +6964,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="7"/>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="52"/>
+      <c r="E4" s="53"/>
       <c r="F4" s="8">
         <v>1867686994.49</v>
       </c>
@@ -7246,10 +8968,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="7"/>
-      <c r="D10" s="52" t="s">
+      <c r="D10" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="52"/>
+      <c r="E10" s="53"/>
       <c r="F10" s="8">
         <v>99153847.969999999</v>
       </c>
@@ -7580,10 +9302,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="7"/>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="52"/>
+      <c r="E11" s="53"/>
       <c r="F11" s="8">
         <v>11535985.5</v>
       </c>
@@ -8582,10 +10304,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="7"/>
-      <c r="D14" s="52" t="s">
+      <c r="D14" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="52"/>
+      <c r="E14" s="53"/>
       <c r="F14" s="8">
         <v>0</v>
       </c>
@@ -8916,10 +10638,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="7"/>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="52"/>
+      <c r="E15" s="53"/>
       <c r="F15" s="8">
         <v>0</v>
       </c>
@@ -9250,10 +10972,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="7"/>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="52"/>
+      <c r="E16" s="53"/>
       <c r="F16" s="8">
         <v>72367508.560000002</v>
       </c>
@@ -9584,10 +11306,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="7"/>
-      <c r="D17" s="52" t="s">
+      <c r="D17" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="52"/>
+      <c r="E17" s="53"/>
       <c r="F17" s="8">
         <v>491782470.01999998</v>
       </c>
@@ -11588,10 +13310,10 @@
         <v>21</v>
       </c>
       <c r="C23" s="7"/>
-      <c r="D23" s="52" t="s">
+      <c r="D23" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="52"/>
+      <c r="E23" s="53"/>
       <c r="F23" s="8">
         <v>72701792.939999998</v>
       </c>
@@ -11921,11 +13643,11 @@
       <c r="B24" s="4">
         <v>22</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
       <c r="F24" s="5">
         <v>752001511.88999999</v>
       </c>
@@ -12256,10 +13978,10 @@
         <v>23</v>
       </c>
       <c r="C25" s="12"/>
-      <c r="D25" s="52" t="s">
+      <c r="D25" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="52"/>
+      <c r="E25" s="53"/>
       <c r="F25" s="8">
         <v>382257583.66000003</v>
       </c>
@@ -14512,10 +16234,10 @@
         <v>30</v>
       </c>
       <c r="C32" s="12"/>
-      <c r="D32" s="52" t="s">
+      <c r="D32" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="52"/>
+      <c r="E32" s="53"/>
       <c r="F32" s="8">
         <v>98620408.819999993</v>
       </c>
@@ -14846,10 +16568,10 @@
         <v>31</v>
       </c>
       <c r="C33" s="12"/>
-      <c r="D33" s="52" t="s">
+      <c r="D33" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="52"/>
+      <c r="E33" s="53"/>
       <c r="F33" s="8">
         <v>1552979.09</v>
       </c>
@@ -15180,10 +16902,10 @@
         <v>32</v>
       </c>
       <c r="C34" s="12"/>
-      <c r="D34" s="52" t="s">
+      <c r="D34" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="52"/>
+      <c r="E34" s="53"/>
       <c r="F34" s="8">
         <v>0</v>
       </c>
@@ -15514,10 +17236,10 @@
         <v>33</v>
       </c>
       <c r="C35" s="12"/>
-      <c r="D35" s="52" t="s">
+      <c r="D35" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="52"/>
+      <c r="E35" s="53"/>
       <c r="F35" s="15">
         <v>269570540.31999999</v>
       </c>
@@ -18949,11 +20671,11 @@
       <c r="B46" s="4">
         <v>44</v>
       </c>
-      <c r="C46" s="55" t="s">
+      <c r="C46" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="55"/>
-      <c r="E46" s="55"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="52"/>
       <c r="F46" s="5">
         <v>1863227087.5899999</v>
       </c>
@@ -19521,11 +21243,11 @@
       <c r="B48" s="4">
         <v>46</v>
       </c>
-      <c r="C48" s="56" t="s">
+      <c r="C48" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
       <c r="F48" s="20">
         <v>1863227087.5899999</v>
       </c>
@@ -20093,11 +21815,11 @@
       <c r="B50" s="4">
         <v>48</v>
       </c>
-      <c r="C50" s="56" t="s">
+      <c r="C50" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="D50" s="56"/>
-      <c r="E50" s="56"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="51"/>
       <c r="F50" s="20">
         <v>1863227087.5899999</v>
       </c>
@@ -20425,11 +22147,11 @@
     </row>
     <row r="51" spans="2:113" s="1" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="52" spans="2:113" x14ac:dyDescent="0.2">
-      <c r="C52" s="55" t="s">
+      <c r="C52" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="D52" s="55"/>
-      <c r="E52" s="55"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="52"/>
       <c r="Q52" s="21">
         <f>SUM(F46:Q46)</f>
         <v>24538621316.629997</v>
@@ -21182,11 +22904,11 @@
       </c>
     </row>
     <row r="56" spans="2:113" x14ac:dyDescent="0.2">
-      <c r="C56" s="55" t="s">
+      <c r="C56" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="D56" s="55"/>
-      <c r="E56" s="55"/>
+      <c r="D56" s="52"/>
+      <c r="E56" s="52"/>
       <c r="BR56" s="35">
         <f>SUM(BG$46:BQ$46)+BR53</f>
         <v>39447296793.788559</v>
@@ -21365,11 +23087,11 @@
       </c>
     </row>
     <row r="57" spans="2:113" x14ac:dyDescent="0.2">
-      <c r="C57" s="55" t="s">
+      <c r="C57" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="D57" s="55"/>
-      <c r="E57" s="55"/>
+      <c r="D57" s="52"/>
+      <c r="E57" s="52"/>
       <c r="BR57" s="35">
         <f>SUM(BG$46:BQ$46)+BR54</f>
         <v>39763284832.35144</v>
@@ -22874,202 +24596,346 @@
         <v>38519005939.751999</v>
       </c>
     </row>
+    <row r="70" spans="5:113" x14ac:dyDescent="0.2">
+      <c r="E70" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="BR70" s="21">
+        <v>39605290813.07</v>
+      </c>
+      <c r="BS70" s="21">
+        <v>40033003482.220001</v>
+      </c>
+      <c r="BT70" s="21">
+        <v>40465205419.699997</v>
+      </c>
+      <c r="BU70" s="21">
+        <v>40801096382.130005</v>
+      </c>
+      <c r="BV70" s="21">
+        <v>41006466829.5</v>
+      </c>
+      <c r="BW70" s="21">
+        <v>41190076665.660004</v>
+      </c>
+      <c r="BX70" s="21">
+        <v>41131422009.380005</v>
+      </c>
+      <c r="BY70" s="21">
+        <v>41520739700.539993</v>
+      </c>
+      <c r="BZ70" s="21">
+        <v>41856204069.990005</v>
+      </c>
+      <c r="CA70" s="21">
+        <v>42190891117.870003</v>
+      </c>
+      <c r="CB70" s="21">
+        <v>42788725116.120003</v>
+      </c>
+      <c r="CC70" s="21">
+        <v>42982154586.779991</v>
+      </c>
+      <c r="CD70" s="21">
+        <v>43134805645.149994</v>
+      </c>
+      <c r="CE70" s="21">
+        <v>43225305169.889999</v>
+      </c>
+      <c r="CF70" s="21">
+        <v>43326750889.080002</v>
+      </c>
+      <c r="CG70" s="21">
+        <v>43472019927.860008</v>
+      </c>
+      <c r="CH70" s="21">
+        <v>43669541474.710007</v>
+      </c>
+      <c r="CI70" s="21">
+        <v>43876892706.700005</v>
+      </c>
+      <c r="CJ70" s="21">
+        <v>44063794546.549995</v>
+      </c>
+      <c r="CK70" s="21">
+        <v>44029473322.589996</v>
+      </c>
+      <c r="CL70" s="34">
+        <v>44772336100</v>
+      </c>
+      <c r="CM70" s="34">
+        <v>45001838836</v>
+      </c>
+      <c r="CN70" s="34">
+        <v>45271431584</v>
+      </c>
+      <c r="CO70" s="34">
+        <v>45544136081</v>
+      </c>
+      <c r="CP70" s="34">
+        <v>45735143263</v>
+      </c>
+      <c r="CQ70" s="34">
+        <v>45927998000</v>
+      </c>
+      <c r="CR70" s="34">
+        <v>46223207434</v>
+      </c>
+      <c r="CS70" s="34">
+        <v>46524480115</v>
+      </c>
+      <c r="CT70" s="34">
+        <v>46852301108</v>
+      </c>
+      <c r="CU70" s="34">
+        <v>47242897933</v>
+      </c>
+      <c r="CV70" s="34">
+        <v>47613532435</v>
+      </c>
+      <c r="CW70" s="34">
+        <v>47875283979</v>
+      </c>
+      <c r="CX70" s="34">
+        <v>48223797474</v>
+      </c>
+      <c r="CY70" s="34">
+        <v>48551296155</v>
+      </c>
+      <c r="CZ70" s="34">
+        <v>48785720289</v>
+      </c>
+      <c r="DA70" s="34">
+        <v>49057130936</v>
+      </c>
+      <c r="DB70" s="34">
+        <v>49357186096</v>
+      </c>
+      <c r="DC70" s="34">
+        <v>49680351792</v>
+      </c>
+      <c r="DD70" s="34">
+        <v>49972800738</v>
+      </c>
+      <c r="DE70" s="34">
+        <v>50301969565</v>
+      </c>
+      <c r="DF70" s="34">
+        <v>50592315729</v>
+      </c>
+      <c r="DG70" s="34">
+        <v>50834232796</v>
+      </c>
+      <c r="DH70" s="34">
+        <v>51108855143</v>
+      </c>
+      <c r="DI70" s="34">
+        <v>51433764417</v>
+      </c>
+    </row>
     <row r="71" spans="5:113" x14ac:dyDescent="0.2">
-      <c r="BX71" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="BY71" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="BZ71" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="CA71" s="47" t="s">
-        <v>68</v>
+      <c r="E71" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="BR71" s="34">
+        <f>BQ59*1+(((2.09+3.98)^1/12)-1)</f>
+        <v>39045234936.09584</v>
+      </c>
+      <c r="BS71" s="34">
+        <f>BR71*1+(((2.09+3.98)^1/12)-1)</f>
+        <v>39045234935.601677</v>
+      </c>
+      <c r="BT71" s="34">
+        <f t="shared" ref="BT71:BY71" si="8">BS71*1+(((2.09+3.98)^1/12)-1)</f>
+        <v>39045234935.107513</v>
+      </c>
+      <c r="BU71" s="34">
+        <f t="shared" si="8"/>
+        <v>39045234934.61335</v>
+      </c>
+      <c r="BV71" s="34">
+        <f t="shared" si="8"/>
+        <v>39045234934.119186</v>
+      </c>
+      <c r="BW71" s="34">
+        <f t="shared" si="8"/>
+        <v>39045234933.625023</v>
+      </c>
+      <c r="BX71" s="34">
+        <f t="shared" si="8"/>
+        <v>39045234933.130859</v>
+      </c>
+      <c r="BY71" s="34">
+        <f t="shared" si="8"/>
+        <v>39045234932.636696</v>
+      </c>
+      <c r="BZ71" s="34">
+        <f>BY71*1+(((2+3.85)^1/12)-1)</f>
+        <v>39045234932.124199</v>
+      </c>
+      <c r="CA71" s="34">
+        <f t="shared" ref="CA71:CK71" si="9">BZ71*1+(((2+3.85)^1/12)-1)</f>
+        <v>39045234931.611702</v>
+      </c>
+      <c r="CB71" s="34">
+        <f t="shared" si="9"/>
+        <v>39045234931.099205</v>
+      </c>
+      <c r="CC71" s="34">
+        <f t="shared" si="9"/>
+        <v>39045234930.586708</v>
+      </c>
+      <c r="CD71" s="34">
+        <f t="shared" si="9"/>
+        <v>39045234930.074211</v>
+      </c>
+      <c r="CE71" s="34">
+        <f t="shared" si="9"/>
+        <v>39045234929.561714</v>
+      </c>
+      <c r="CF71" s="34">
+        <f t="shared" si="9"/>
+        <v>39045234929.049217</v>
+      </c>
+      <c r="CG71" s="34">
+        <f t="shared" si="9"/>
+        <v>39045234928.53672</v>
+      </c>
+      <c r="CH71" s="34">
+        <f t="shared" si="9"/>
+        <v>39045234928.024223</v>
+      </c>
+      <c r="CI71" s="34">
+        <f t="shared" si="9"/>
+        <v>39045234927.511726</v>
+      </c>
+      <c r="CJ71" s="34">
+        <f t="shared" si="9"/>
+        <v>39045234926.999229</v>
+      </c>
+      <c r="CK71" s="34">
+        <f t="shared" si="9"/>
+        <v>39045234926.486732</v>
+      </c>
+      <c r="CL71" s="34">
+        <f>CK71*1+(((2+3.6)^1/12)-1)</f>
+        <v>39045234925.9534</v>
+      </c>
+      <c r="CM71" s="34">
+        <f t="shared" ref="CM71:CW71" si="10">CL71*1+(((2+3.6)^1/12)-1)</f>
+        <v>39045234925.420067</v>
+      </c>
+      <c r="CN71" s="34">
+        <f t="shared" si="10"/>
+        <v>39045234924.886734</v>
+      </c>
+      <c r="CO71" s="34">
+        <f t="shared" si="10"/>
+        <v>39045234924.353401</v>
+      </c>
+      <c r="CP71" s="34">
+        <f t="shared" si="10"/>
+        <v>39045234923.820068</v>
+      </c>
+      <c r="CQ71" s="34">
+        <f t="shared" si="10"/>
+        <v>39045234923.286736</v>
+      </c>
+      <c r="CR71" s="34">
+        <f t="shared" si="10"/>
+        <v>39045234922.753403</v>
+      </c>
+      <c r="CS71" s="34">
+        <f t="shared" si="10"/>
+        <v>39045234922.22007</v>
+      </c>
+      <c r="CT71" s="34">
+        <f t="shared" si="10"/>
+        <v>39045234921.686737</v>
+      </c>
+      <c r="CU71" s="34">
+        <f t="shared" si="10"/>
+        <v>39045234921.153404</v>
+      </c>
+      <c r="CV71" s="34">
+        <f t="shared" si="10"/>
+        <v>39045234920.620071</v>
+      </c>
+      <c r="CW71" s="34">
+        <f t="shared" si="10"/>
+        <v>39045234920.086739</v>
+      </c>
+      <c r="CX71" s="34">
+        <f>CW71*1+(((2+3.5)^1/12)-1)</f>
+        <v>39045234919.545074</v>
+      </c>
+      <c r="CY71" s="34">
+        <f t="shared" ref="CY71:DI71" si="11">CX71*1+(((2+3.5)^1/12)-1)</f>
+        <v>39045234919.00341</v>
+      </c>
+      <c r="CZ71" s="34">
+        <f t="shared" si="11"/>
+        <v>39045234918.461746</v>
+      </c>
+      <c r="DA71" s="34">
+        <f t="shared" si="11"/>
+        <v>39045234917.920082</v>
+      </c>
+      <c r="DB71" s="34">
+        <f t="shared" si="11"/>
+        <v>39045234917.378418</v>
+      </c>
+      <c r="DC71" s="34">
+        <f t="shared" si="11"/>
+        <v>39045234916.836754</v>
+      </c>
+      <c r="DD71" s="34">
+        <f t="shared" si="11"/>
+        <v>39045234916.29509</v>
+      </c>
+      <c r="DE71" s="34">
+        <f t="shared" si="11"/>
+        <v>39045234915.753426</v>
+      </c>
+      <c r="DF71" s="34">
+        <f t="shared" si="11"/>
+        <v>39045234915.211761</v>
+      </c>
+      <c r="DG71" s="34">
+        <f t="shared" si="11"/>
+        <v>39045234914.670097</v>
+      </c>
+      <c r="DH71" s="34">
+        <f t="shared" si="11"/>
+        <v>39045234914.128433</v>
+      </c>
+      <c r="DI71" s="34">
+        <f t="shared" si="11"/>
+        <v>39045234913.586769</v>
       </c>
     </row>
     <row r="72" spans="5:113" x14ac:dyDescent="0.2">
-      <c r="BW72" s="46">
-        <v>2024</v>
-      </c>
-      <c r="BX72" s="43">
-        <f>$BY$64</f>
-        <v>40572588976</v>
-      </c>
-      <c r="BY72" s="43">
-        <v>41520739700.539993</v>
-      </c>
-      <c r="BZ72" s="44">
-        <f>BX72-BY72</f>
-        <v>-948150724.53999329</v>
-      </c>
-      <c r="CA72" s="45">
-        <f>BX72/BY72-1</f>
-        <v>-2.2835593281293698E-2</v>
-      </c>
       <c r="CE72" s="41"/>
-      <c r="CG72">
-        <v>38913076822</v>
-      </c>
-      <c r="CH72">
-        <v>38691479251</v>
-      </c>
-      <c r="CI72">
-        <v>39134674392</v>
-      </c>
-      <c r="CJ72">
-        <v>38574172583</v>
-      </c>
-      <c r="CK72">
-        <v>39251981060</v>
-      </c>
     </row>
     <row r="73" spans="5:113" x14ac:dyDescent="0.2">
+      <c r="BR73">
+        <f>1+(((2.09+3.98)^1/12)-1)</f>
+        <v>0.50583333333333336</v>
+      </c>
       <c r="BV73" s="22"/>
-      <c r="BW73" s="46">
-        <v>2025</v>
-      </c>
-      <c r="BX73" s="43">
-        <f>$CK$64</f>
-        <v>44518485505</v>
-      </c>
-      <c r="BY73" s="43">
-        <v>44029473322.589996</v>
-      </c>
-      <c r="BZ73" s="43">
-        <f t="shared" ref="BZ73:BZ75" si="8">BX73-BY73</f>
-        <v>489012182.41000366</v>
-      </c>
-      <c r="CA73" s="45">
-        <f>BX73/BY73-1</f>
-        <v>1.1106473584800103E-2</v>
-      </c>
       <c r="CE73" s="41"/>
-      <c r="CG73">
-        <v>39190958511</v>
-      </c>
-      <c r="CH73">
-        <v>38776806355</v>
-      </c>
-      <c r="CI73">
-        <v>39605110668</v>
-      </c>
-      <c r="CJ73">
-        <v>38557567446</v>
-      </c>
-      <c r="CK73">
-        <v>39824349576</v>
-      </c>
     </row>
     <row r="74" spans="5:113" x14ac:dyDescent="0.2">
-      <c r="BW74" s="46">
-        <v>2026</v>
-      </c>
-      <c r="BX74" s="43">
-        <f>$CW$64</f>
-        <v>47875283979</v>
-      </c>
-      <c r="BY74" s="43">
-        <v>45265030408.470001</v>
-      </c>
-      <c r="BZ74" s="43">
-        <f t="shared" si="8"/>
-        <v>2610253570.5299988</v>
-      </c>
-      <c r="CA74" s="45">
-        <f>BX74/BY74-1</f>
-        <v>5.7666007224012938E-2</v>
-      </c>
       <c r="CE74" s="41"/>
-      <c r="CG74">
-        <v>39605544440</v>
-      </c>
-      <c r="CH74">
-        <v>39029081881</v>
-      </c>
-      <c r="CI74">
-        <v>40182006998</v>
-      </c>
-      <c r="CJ74">
-        <v>38723921035</v>
-      </c>
-      <c r="CK74">
-        <v>40487167844</v>
-      </c>
     </row>
     <row r="75" spans="5:113" x14ac:dyDescent="0.2">
-      <c r="BW75" s="46">
-        <v>2027</v>
-      </c>
-      <c r="BX75" s="43">
-        <f>$DI$64</f>
-        <v>51433764417</v>
-      </c>
-      <c r="BY75" s="43">
-        <v>47446662717.779999</v>
-      </c>
-      <c r="BZ75" s="43">
-        <f t="shared" si="8"/>
-        <v>3987101699.2200012</v>
-      </c>
-      <c r="CA75" s="45">
-        <f>BX75/BY75-1</f>
-        <v>8.4033343355166767E-2</v>
-      </c>
       <c r="CE75" s="41"/>
-      <c r="CG75">
-        <v>39875035025</v>
-      </c>
-      <c r="CH75">
-        <v>39142444067</v>
-      </c>
-      <c r="CI75">
-        <v>40607625983</v>
-      </c>
-      <c r="CJ75">
-        <v>38754633839</v>
-      </c>
-      <c r="CK75">
-        <v>40995436210</v>
-      </c>
     </row>
     <row r="76" spans="5:113" x14ac:dyDescent="0.2">
-      <c r="BY76" s="41"/>
       <c r="CE76" s="41"/>
-      <c r="CG76">
-        <v>39963020979</v>
-      </c>
-      <c r="CH76">
-        <v>39074265608</v>
-      </c>
-      <c r="CI76">
-        <v>40851776349</v>
-      </c>
-      <c r="CJ76">
-        <v>38603786935</v>
-      </c>
-      <c r="CK76">
-        <v>41322255022</v>
-      </c>
     </row>
     <row r="77" spans="5:113" x14ac:dyDescent="0.2">
-      <c r="BY77" s="41"/>
       <c r="CE77" s="41"/>
-      <c r="CG77">
-        <v>40173198220</v>
-      </c>
-      <c r="CH77">
-        <v>39125762456</v>
-      </c>
-      <c r="CI77">
-        <v>41220633984</v>
-      </c>
-      <c r="CJ77">
-        <v>38571283456</v>
-      </c>
-      <c r="CK77">
-        <v>41775112984</v>
-      </c>
     </row>
     <row r="78" spans="5:113" x14ac:dyDescent="0.2">
       <c r="BX78" s="46" t="s">
@@ -23085,111 +24951,63 @@
         <v>68</v>
       </c>
       <c r="CE78" s="41"/>
-      <c r="CG78">
-        <v>40572588976</v>
-      </c>
-      <c r="CH78">
-        <v>39362787738</v>
-      </c>
-      <c r="CI78">
-        <v>41782390214</v>
-      </c>
-      <c r="CJ78">
-        <v>38722357648</v>
-      </c>
-      <c r="CK78">
-        <v>42422820304</v>
-      </c>
     </row>
     <row r="79" spans="5:113" x14ac:dyDescent="0.2">
       <c r="BW79" s="46">
         <v>2024</v>
       </c>
-      <c r="BX79" s="48">
-        <f>BX72/1000000</f>
-        <v>40572.588975999999</v>
-      </c>
-      <c r="BY79" s="48">
-        <f>BY72/1000000</f>
-        <v>41520.739700539991</v>
-      </c>
-      <c r="BZ79" s="49">
+      <c r="BX79" s="43">
+        <f>$BY$64</f>
+        <v>40572588976</v>
+      </c>
+      <c r="BY79" s="43">
+        <v>41520739700.539993</v>
+      </c>
+      <c r="BZ79" s="44">
         <f>BX79-BY79</f>
-        <v>-948.15072453999164</v>
+        <v>-948150724.53999329</v>
       </c>
       <c r="CA79" s="45">
         <f>BX79/BY79-1</f>
-        <v>-2.2835593281293587E-2</v>
+        <v>-2.2835593281293698E-2</v>
       </c>
       <c r="CE79" s="41"/>
-      <c r="CG79">
-        <v>40816239538</v>
-      </c>
-      <c r="CH79">
-        <v>39439794485</v>
-      </c>
-      <c r="CI79">
-        <v>42192684592</v>
-      </c>
-      <c r="CJ79">
-        <v>38711148487</v>
-      </c>
-      <c r="CK79">
-        <v>42921330590</v>
-      </c>
     </row>
     <row r="80" spans="5:113" x14ac:dyDescent="0.2">
       <c r="BW80" s="46">
         <v>2025</v>
       </c>
-      <c r="BX80" s="48">
-        <f t="shared" ref="BX80:BY82" si="9">BX73/1000000</f>
-        <v>44518.485504999997</v>
-      </c>
-      <c r="BY80" s="48">
-        <f t="shared" si="9"/>
-        <v>44029.473322589998</v>
-      </c>
-      <c r="BZ80" s="48">
-        <f t="shared" ref="BZ80:BZ82" si="10">BX80-BY80</f>
-        <v>489.01218240999879</v>
+      <c r="BX80" s="43">
+        <f>$CK$64</f>
+        <v>44518485505</v>
+      </c>
+      <c r="BY80" s="43">
+        <v>44029473322.589996</v>
+      </c>
+      <c r="BZ80" s="43">
+        <f t="shared" ref="BZ80:BZ82" si="12">BX80-BY80</f>
+        <v>489012182.41000366</v>
       </c>
       <c r="CA80" s="45">
         <f>BX80/BY80-1</f>
-        <v>1.1106473584799881E-2</v>
+        <v>1.1106473584800103E-2</v>
       </c>
       <c r="CE80" s="41"/>
-      <c r="CG80">
-        <v>41148170690</v>
-      </c>
-      <c r="CH80">
-        <v>39600498135</v>
-      </c>
-      <c r="CI80">
-        <v>42695843246</v>
-      </c>
-      <c r="CJ80">
-        <v>38781209773</v>
-      </c>
-      <c r="CK80">
-        <v>43515131607</v>
-      </c>
     </row>
     <row r="81" spans="75:89" x14ac:dyDescent="0.2">
       <c r="BW81" s="46">
         <v>2026</v>
       </c>
-      <c r="BX81" s="48">
-        <f t="shared" si="9"/>
-        <v>47875.283979</v>
-      </c>
-      <c r="BY81" s="48">
-        <f t="shared" si="9"/>
-        <v>45265.030408470004</v>
-      </c>
-      <c r="BZ81" s="48">
-        <f t="shared" si="10"/>
-        <v>2610.2535705299961</v>
+      <c r="BX81" s="43">
+        <f>$CW$64</f>
+        <v>47875283979</v>
+      </c>
+      <c r="BY81" s="43">
+        <v>45265030408.470001</v>
+      </c>
+      <c r="BZ81" s="43">
+        <f t="shared" si="12"/>
+        <v>2610253570.5299988</v>
       </c>
       <c r="CA81" s="45">
         <f>BX81/BY81-1</f>
@@ -23197,94 +25015,93 @@
       </c>
       <c r="CE81" s="41"/>
       <c r="CG81">
-        <v>41642315355</v>
+        <v>38913076822</v>
       </c>
       <c r="CH81">
-        <v>39918682591</v>
+        <v>38691479251</v>
       </c>
       <c r="CI81">
-        <v>43365948119</v>
+        <v>39134674392</v>
       </c>
       <c r="CJ81">
-        <v>39006246522</v>
+        <v>38574172583</v>
       </c>
       <c r="CK81">
-        <v>44278384188</v>
+        <v>39251981060</v>
       </c>
     </row>
     <row r="82" spans="75:89" x14ac:dyDescent="0.2">
       <c r="BW82" s="46">
         <v>2027</v>
       </c>
-      <c r="BX82" s="48">
-        <f t="shared" si="9"/>
-        <v>51433.764416999999</v>
-      </c>
-      <c r="BY82" s="48">
-        <f t="shared" si="9"/>
-        <v>47446.662717779996</v>
-      </c>
-      <c r="BZ82" s="48">
-        <f t="shared" si="10"/>
-        <v>3987.101699220002</v>
+      <c r="BX82" s="43">
+        <f>$DI$64</f>
+        <v>51433764417</v>
+      </c>
+      <c r="BY82" s="43">
+        <v>47446662717.779999</v>
+      </c>
+      <c r="BZ82" s="43">
+        <f t="shared" si="12"/>
+        <v>3987101699.2200012</v>
       </c>
       <c r="CA82" s="45">
         <f>BX82/BY82-1</f>
-        <v>8.4033343355166989E-2</v>
+        <v>8.4033343355166767E-2</v>
       </c>
       <c r="CE82" s="41"/>
       <c r="CG82">
-        <v>42042547122</v>
+        <v>39190958511</v>
       </c>
       <c r="CH82">
-        <v>40138162053</v>
+        <v>38776806355</v>
       </c>
       <c r="CI82">
-        <v>43946932191</v>
+        <v>39605110668</v>
       </c>
       <c r="CJ82">
-        <v>39130041493</v>
+        <v>38557567446</v>
       </c>
       <c r="CK82">
-        <v>44955052751</v>
+        <v>39824349576</v>
       </c>
     </row>
     <row r="83" spans="75:89" x14ac:dyDescent="0.2">
       <c r="BY83" s="41"/>
       <c r="CE83" s="41"/>
       <c r="CG83">
-        <v>42500126191</v>
+        <v>39605544440</v>
       </c>
       <c r="CH83">
-        <v>40410190567</v>
+        <v>39029081881</v>
       </c>
       <c r="CI83">
-        <v>44590061814</v>
+        <v>40182006998</v>
       </c>
       <c r="CJ83">
-        <v>39303845477</v>
+        <v>38723921035</v>
       </c>
       <c r="CK83">
-        <v>45696406904</v>
+        <v>40487167844</v>
       </c>
     </row>
     <row r="84" spans="75:89" x14ac:dyDescent="0.2">
       <c r="BY84" s="41"/>
       <c r="CE84" s="41"/>
       <c r="CG84">
-        <v>42899174700</v>
+        <v>39875035025</v>
       </c>
       <c r="CH84">
-        <v>40671996415</v>
+        <v>39142444067</v>
       </c>
       <c r="CI84">
-        <v>45126352984</v>
+        <v>40607625983</v>
       </c>
       <c r="CJ84">
-        <v>39492999449</v>
+        <v>38754633839</v>
       </c>
       <c r="CK84">
-        <v>46305349950</v>
+        <v>40995436210</v>
       </c>
     </row>
     <row r="85" spans="75:89" x14ac:dyDescent="0.2">
@@ -23302,19 +25119,19 @@
       </c>
       <c r="CE85" s="41"/>
       <c r="CG85">
-        <v>43213919536</v>
+        <v>39963020979</v>
       </c>
       <c r="CH85">
-        <v>40867502272</v>
+        <v>39074265608</v>
       </c>
       <c r="CI85">
-        <v>45560336801</v>
+        <v>40851776349</v>
       </c>
       <c r="CJ85">
-        <v>39625384002</v>
+        <v>38603786935</v>
       </c>
       <c r="CK85">
-        <v>46802455070</v>
+        <v>41322255022</v>
       </c>
     </row>
     <row r="86" spans="75:89" x14ac:dyDescent="0.2">
@@ -23322,32 +25139,36 @@
         <v>2024</v>
       </c>
       <c r="BX86" s="48">
+        <f>BX79/1000000</f>
         <v>40572.588975999999</v>
       </c>
       <c r="BY86" s="48">
+        <f>BY79/1000000</f>
         <v>41520.739700539991</v>
       </c>
       <c r="BZ86" s="49">
+        <f>BX86-BY86</f>
         <v>-948.15072453999164</v>
       </c>
       <c r="CA86" s="45">
+        <f>BX86/BY86-1</f>
         <v>-2.2835593281293587E-2</v>
       </c>
       <c r="CE86" s="41"/>
       <c r="CG86">
-        <v>43430829049</v>
+        <v>40173198220</v>
       </c>
       <c r="CH86">
-        <v>40965392090</v>
+        <v>39125762456</v>
       </c>
       <c r="CI86">
-        <v>45896266008</v>
+        <v>41220633984</v>
       </c>
       <c r="CJ86">
-        <v>39660268600</v>
+        <v>38571283456</v>
       </c>
       <c r="CK86">
-        <v>47201389498</v>
+        <v>41775112984</v>
       </c>
     </row>
     <row r="87" spans="75:89" x14ac:dyDescent="0.2">
@@ -23355,32 +25176,36 @@
         <v>2025</v>
       </c>
       <c r="BX87" s="48">
+        <f t="shared" ref="BX87:BY89" si="13">BX80/1000000</f>
         <v>44518.485504999997</v>
       </c>
       <c r="BY87" s="48">
+        <f t="shared" si="13"/>
         <v>44029.473322589998</v>
       </c>
       <c r="BZ87" s="48">
+        <f t="shared" ref="BZ87:BZ89" si="14">BX87-BY87</f>
         <v>489.01218240999879</v>
       </c>
       <c r="CA87" s="45">
+        <f>BX87/BY87-1</f>
         <v>1.1106473584799881E-2</v>
       </c>
       <c r="CE87" s="41"/>
       <c r="CG87">
-        <v>43700202954</v>
+        <v>40572588976</v>
       </c>
       <c r="CH87">
-        <v>41115805783</v>
+        <v>39362787738</v>
       </c>
       <c r="CI87">
-        <v>46284600124</v>
+        <v>41782390214</v>
       </c>
       <c r="CJ87">
-        <v>39747708562</v>
+        <v>38722357648</v>
       </c>
       <c r="CK87">
-        <v>47652697345</v>
+        <v>42422820304</v>
       </c>
     </row>
     <row r="88" spans="75:89" x14ac:dyDescent="0.2">
@@ -23388,32 +25213,36 @@
         <v>2026</v>
       </c>
       <c r="BX88" s="48">
+        <f t="shared" si="13"/>
         <v>47875.283979</v>
       </c>
       <c r="BY88" s="48">
+        <f t="shared" si="13"/>
         <v>45265.030408470004</v>
       </c>
       <c r="BZ88" s="48">
+        <f t="shared" si="14"/>
         <v>2610.2535705299961</v>
       </c>
       <c r="CA88" s="45">
+        <f>BX88/BY88-1</f>
         <v>5.7666007224012938E-2</v>
       </c>
       <c r="CE88" s="41"/>
       <c r="CG88">
-        <v>43989154183</v>
+        <v>40816239538</v>
       </c>
       <c r="CH88">
-        <v>41285724631</v>
+        <v>39439794485</v>
       </c>
       <c r="CI88">
-        <v>46692583734</v>
+        <v>42192684592</v>
       </c>
       <c r="CJ88">
-        <v>39854615474</v>
+        <v>38711148487</v>
       </c>
       <c r="CK88">
-        <v>48123692891</v>
+        <v>42921330590</v>
       </c>
     </row>
     <row r="89" spans="75:89" x14ac:dyDescent="0.2">
@@ -23421,580 +25250,798 @@
         <v>2027</v>
       </c>
       <c r="BX89" s="48">
+        <f t="shared" si="13"/>
         <v>51433.764416999999</v>
       </c>
       <c r="BY89" s="48">
+        <f t="shared" si="13"/>
         <v>47446.662717779996</v>
       </c>
       <c r="BZ89" s="48">
+        <f t="shared" si="14"/>
         <v>3987.101699220002</v>
       </c>
       <c r="CA89" s="45">
+        <f>BX89/BY89-1</f>
         <v>8.4033343355166989E-2</v>
       </c>
       <c r="CE89" s="41"/>
       <c r="CG89">
-        <v>44230191982</v>
+        <v>41148170690</v>
       </c>
       <c r="CH89">
-        <v>41407548438</v>
+        <v>39600498135</v>
       </c>
       <c r="CI89">
-        <v>47052835527</v>
+        <v>42695843246</v>
       </c>
       <c r="CJ89">
-        <v>39913331204</v>
+        <v>38781209773</v>
       </c>
       <c r="CK89">
-        <v>48547052760</v>
+        <v>43515131607</v>
       </c>
     </row>
     <row r="90" spans="75:89" x14ac:dyDescent="0.2">
       <c r="BY90" s="41"/>
       <c r="CE90" s="41"/>
       <c r="CG90">
-        <v>44518485505</v>
+        <v>41642315355</v>
       </c>
       <c r="CH90">
-        <v>41576354676</v>
+        <v>39918682591</v>
       </c>
       <c r="CI90">
-        <v>47460616333</v>
+        <v>43365948119</v>
       </c>
       <c r="CJ90">
-        <v>40018884695</v>
+        <v>39006246522</v>
       </c>
       <c r="CK90">
-        <v>49018086315</v>
+        <v>44278384188</v>
       </c>
     </row>
     <row r="91" spans="75:89" x14ac:dyDescent="0.2">
       <c r="BY91" s="41"/>
       <c r="CE91" s="41"/>
       <c r="CG91">
-        <v>44772336100</v>
+        <v>42042547122</v>
       </c>
       <c r="CH91">
-        <v>41710367386</v>
+        <v>40138162053</v>
       </c>
       <c r="CI91">
-        <v>47834304814</v>
+        <v>43946932191</v>
       </c>
       <c r="CJ91">
-        <v>40089459060</v>
+        <v>39130041493</v>
       </c>
       <c r="CK91">
-        <v>49455213140</v>
+        <v>44955052751</v>
       </c>
     </row>
     <row r="92" spans="75:89" x14ac:dyDescent="0.2">
-      <c r="BY92" s="41"/>
+      <c r="BX92" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="BY92" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="BZ92" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="CA92" s="47" t="s">
+        <v>68</v>
+      </c>
       <c r="CE92" s="41"/>
       <c r="CG92">
-        <v>45001838836</v>
+        <v>42500126191</v>
       </c>
       <c r="CH92">
-        <v>41819616072</v>
+        <v>40410190567</v>
       </c>
       <c r="CI92">
-        <v>48184061599</v>
+        <v>44590061814</v>
       </c>
       <c r="CJ92">
-        <v>40135049098</v>
+        <v>39303845477</v>
       </c>
       <c r="CK92">
-        <v>49868628573</v>
+        <v>45696406904</v>
       </c>
     </row>
     <row r="93" spans="75:89" x14ac:dyDescent="0.2">
-      <c r="BX93" s="46">
+      <c r="BW93" s="46">
         <v>2024</v>
       </c>
-      <c r="BY93" s="46">
-        <v>2025</v>
-      </c>
-      <c r="BZ93" s="46">
-        <v>2026</v>
-      </c>
-      <c r="CA93" s="46">
-        <v>2027</v>
+      <c r="BX93" s="48">
+        <v>40572.588975999999</v>
+      </c>
+      <c r="BY93" s="48">
+        <v>41520.739700539991</v>
+      </c>
+      <c r="BZ93" s="49">
+        <v>-948.15072453999164</v>
+      </c>
+      <c r="CA93" s="45">
+        <v>-2.2835593281293587E-2</v>
       </c>
       <c r="CE93" s="41"/>
       <c r="CG93">
-        <v>45271431584</v>
+        <v>42899174700</v>
       </c>
       <c r="CH93">
-        <v>41968482733</v>
+        <v>40671996415</v>
       </c>
       <c r="CI93">
-        <v>48574380434</v>
+        <v>45126352984</v>
       </c>
       <c r="CJ93">
-        <v>40220007230</v>
+        <v>39492999449</v>
       </c>
       <c r="CK93">
-        <v>50322855938</v>
+        <v>46305349950</v>
       </c>
     </row>
     <row r="94" spans="75:89" x14ac:dyDescent="0.2">
-      <c r="BW94" s="46" t="s">
-        <v>66</v>
+      <c r="BW94" s="46">
+        <v>2025</v>
       </c>
       <c r="BX94" s="48">
-        <v>40572.588975999999</v>
+        <v>44518.485504999997</v>
       </c>
       <c r="BY94" s="48">
-        <v>44518.485504999997</v>
+        <v>44029.473322589998</v>
       </c>
       <c r="BZ94" s="48">
-        <v>47875.283979</v>
-      </c>
-      <c r="CA94" s="48">
-        <v>51433.764416999999</v>
+        <v>489.01218240999879</v>
+      </c>
+      <c r="CA94" s="45">
+        <v>1.1106473584799881E-2</v>
       </c>
       <c r="CE94" s="41"/>
       <c r="CG94">
-        <v>45544136081</v>
+        <v>43213919536</v>
       </c>
       <c r="CH94">
-        <v>42119941295</v>
+        <v>40867502272</v>
       </c>
       <c r="CI94">
-        <v>48968330868</v>
+        <v>45560336801</v>
       </c>
       <c r="CJ94">
-        <v>40307282069</v>
+        <v>39625384002</v>
       </c>
       <c r="CK94">
-        <v>50780990094</v>
+        <v>46802455070</v>
       </c>
     </row>
     <row r="95" spans="75:89" x14ac:dyDescent="0.2">
-      <c r="BW95" s="46" t="s">
-        <v>67</v>
+      <c r="BW95" s="46">
+        <v>2026</v>
       </c>
       <c r="BX95" s="48">
-        <v>41520.739700539991</v>
+        <v>47875.283979</v>
       </c>
       <c r="BY95" s="48">
-        <v>44029.473322589998</v>
+        <v>45265.030408470004</v>
       </c>
       <c r="BZ95" s="48">
-        <v>45265.030408470004</v>
-      </c>
-      <c r="CA95" s="48">
-        <v>47446.662717779996</v>
+        <v>2610.2535705299961</v>
+      </c>
+      <c r="CA95" s="45">
+        <v>5.7666007224012938E-2</v>
       </c>
       <c r="CE95" s="41"/>
       <c r="CG95">
-        <v>45735143263</v>
+        <v>43430829049</v>
       </c>
       <c r="CH95">
-        <v>42189141631</v>
+        <v>40965392090</v>
       </c>
       <c r="CI95">
-        <v>49281144894</v>
+        <v>45896266008</v>
       </c>
       <c r="CJ95">
-        <v>40312001757</v>
+        <v>39660268600</v>
       </c>
       <c r="CK95">
-        <v>51158284768</v>
+        <v>47201389498</v>
       </c>
     </row>
     <row r="96" spans="75:89" x14ac:dyDescent="0.2">
-      <c r="BW96" s="47" t="s">
-        <v>69</v>
-      </c>
-      <c r="BX96" s="49">
-        <v>-948.15072453999164</v>
+      <c r="BW96" s="46">
+        <v>2027</v>
+      </c>
+      <c r="BX96" s="48">
+        <v>51433.764416999999</v>
       </c>
       <c r="BY96" s="48">
-        <v>489.01218240999879</v>
+        <v>47446.662717779996</v>
       </c>
       <c r="BZ96" s="48">
-        <v>2610.2535705299961</v>
-      </c>
-      <c r="CA96" s="48">
         <v>3987.101699220002</v>
+      </c>
+      <c r="CA96" s="45">
+        <v>8.4033343355166989E-2</v>
       </c>
       <c r="CE96" s="41"/>
       <c r="CG96">
-        <v>45927998000</v>
+        <v>43700202954</v>
       </c>
       <c r="CH96">
-        <v>42259760194</v>
+        <v>41115805783</v>
       </c>
       <c r="CI96">
-        <v>49596235806</v>
+        <v>46284600124</v>
       </c>
       <c r="CJ96">
-        <v>40317912397</v>
+        <v>39747708562</v>
       </c>
       <c r="CK96">
-        <v>51538083603</v>
+        <v>47652697345</v>
       </c>
     </row>
     <row r="97" spans="75:89" x14ac:dyDescent="0.2">
-      <c r="BW97" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="BX97" s="45">
-        <v>-2.2835593281293587E-2</v>
-      </c>
-      <c r="BY97" s="45">
-        <v>1.1106473584799881E-2</v>
-      </c>
-      <c r="BZ97" s="45">
-        <v>5.7666007224012938E-2</v>
-      </c>
-      <c r="CA97" s="45">
-        <v>8.4033343355166989E-2</v>
-      </c>
+      <c r="BY97" s="41"/>
       <c r="CE97" s="41"/>
       <c r="CG97">
-        <v>46223207434</v>
+        <v>43989154183</v>
       </c>
       <c r="CH97">
-        <v>42432194261</v>
+        <v>41285724631</v>
       </c>
       <c r="CI97">
-        <v>50014220606</v>
+        <v>46692583734</v>
       </c>
       <c r="CJ97">
-        <v>40425353112</v>
+        <v>39854615474</v>
       </c>
       <c r="CK97">
-        <v>52021061756</v>
+        <v>48123692891</v>
       </c>
     </row>
     <row r="98" spans="75:89" x14ac:dyDescent="0.2">
       <c r="BY98" s="41"/>
       <c r="CE98" s="41"/>
       <c r="CG98">
-        <v>46524480115</v>
+        <v>44230191982</v>
       </c>
       <c r="CH98">
-        <v>42610064557</v>
+        <v>41407548438</v>
       </c>
       <c r="CI98">
-        <v>50438895674</v>
+        <v>47052835527</v>
       </c>
       <c r="CJ98">
-        <v>40537898130</v>
+        <v>39913331204</v>
       </c>
       <c r="CK98">
-        <v>52511062101</v>
+        <v>48547052760</v>
       </c>
     </row>
     <row r="99" spans="75:89" x14ac:dyDescent="0.2">
       <c r="BY99" s="41"/>
       <c r="CE99" s="41"/>
       <c r="CG99">
-        <v>46852301108</v>
+        <v>44518485505</v>
       </c>
       <c r="CH99">
-        <v>42813832106</v>
+        <v>41576354676</v>
       </c>
       <c r="CI99">
-        <v>50890770110</v>
+        <v>47460616333</v>
       </c>
       <c r="CJ99">
-        <v>40675995753</v>
+        <v>40018884695</v>
       </c>
       <c r="CK99">
-        <v>53028606463</v>
+        <v>49018086315</v>
       </c>
     </row>
     <row r="100" spans="75:89" x14ac:dyDescent="0.2">
-      <c r="BY100" s="41"/>
+      <c r="BX100" s="46">
+        <v>2024</v>
+      </c>
+      <c r="BY100" s="46">
+        <v>2025</v>
+      </c>
+      <c r="BZ100" s="46">
+        <v>2026</v>
+      </c>
+      <c r="CA100" s="46">
+        <v>2027</v>
+      </c>
       <c r="CE100" s="41"/>
       <c r="CG100">
-        <v>47242897933</v>
+        <v>44772336100</v>
       </c>
       <c r="CH100">
-        <v>43079703555</v>
+        <v>41710367386</v>
       </c>
       <c r="CI100">
-        <v>51406092312</v>
+        <v>47834304814</v>
       </c>
       <c r="CJ100">
-        <v>40875841576</v>
+        <v>40089459060</v>
       </c>
       <c r="CK100">
-        <v>53609954291</v>
+        <v>49455213140</v>
       </c>
     </row>
     <row r="101" spans="75:89" x14ac:dyDescent="0.2">
-      <c r="BY101" s="41"/>
+      <c r="BW101" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="BX101" s="48">
+        <v>40572.588975999999</v>
+      </c>
+      <c r="BY101" s="48">
+        <v>44518.485504999997</v>
+      </c>
+      <c r="BZ101" s="48">
+        <v>47875.283979</v>
+      </c>
+      <c r="CA101" s="48">
+        <v>51433.764416999999</v>
+      </c>
       <c r="CE101" s="41"/>
       <c r="CG101">
-        <v>47613532435</v>
+        <v>45001838836</v>
       </c>
       <c r="CH101">
-        <v>43324922611</v>
+        <v>41819616072</v>
       </c>
       <c r="CI101">
-        <v>51902142259</v>
+        <v>48184061599</v>
       </c>
       <c r="CJ101">
-        <v>41054669706</v>
+        <v>40135049098</v>
       </c>
       <c r="CK101">
-        <v>54172395164</v>
+        <v>49868628573</v>
       </c>
     </row>
     <row r="102" spans="75:89" x14ac:dyDescent="0.2">
-      <c r="BY102" s="41"/>
+      <c r="BW102" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="BX102" s="48">
+        <v>41520.739700539991</v>
+      </c>
+      <c r="BY102" s="48">
+        <v>44029.473322589998</v>
+      </c>
+      <c r="BZ102" s="48">
+        <v>45265.030408470004</v>
+      </c>
+      <c r="CA102" s="48">
+        <v>47446.662717779996</v>
+      </c>
       <c r="CE102" s="41"/>
       <c r="CG102">
-        <v>47875283979</v>
+        <v>45271431584</v>
       </c>
       <c r="CH102">
-        <v>43460552883</v>
+        <v>41968482733</v>
       </c>
       <c r="CI102">
-        <v>52290015075</v>
+        <v>48574380434</v>
       </c>
       <c r="CJ102">
-        <v>41123535409</v>
+        <v>40220007230</v>
       </c>
       <c r="CK102">
-        <v>54627032549</v>
+        <v>50322855938</v>
       </c>
     </row>
     <row r="103" spans="75:89" x14ac:dyDescent="0.2">
-      <c r="BY103" s="41"/>
+      <c r="BW103" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="BX103" s="49">
+        <v>-948.15072453999164</v>
+      </c>
+      <c r="BY103" s="48">
+        <v>489.01218240999879</v>
+      </c>
+      <c r="BZ103" s="48">
+        <v>2610.2535705299961</v>
+      </c>
+      <c r="CA103" s="48">
+        <v>3987.101699220002</v>
+      </c>
       <c r="CE103" s="41"/>
       <c r="CG103">
-        <v>48223797474</v>
+        <v>45544136081</v>
       </c>
       <c r="CH103">
-        <v>43682225595</v>
+        <v>42119941295</v>
       </c>
       <c r="CI103">
-        <v>52765369352</v>
+        <v>48968330868</v>
       </c>
       <c r="CJ103">
-        <v>41278062667</v>
+        <v>40307282069</v>
       </c>
       <c r="CK103">
-        <v>55169532280</v>
+        <v>50780990094</v>
       </c>
     </row>
     <row r="104" spans="75:89" x14ac:dyDescent="0.2">
-      <c r="BY104" s="41"/>
+      <c r="BW104" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="BX104" s="45">
+        <v>-2.2835593281293587E-2</v>
+      </c>
+      <c r="BY104" s="45">
+        <v>1.1106473584799881E-2</v>
+      </c>
+      <c r="BZ104" s="45">
+        <v>5.7666007224012938E-2</v>
+      </c>
+      <c r="CA104" s="45">
+        <v>8.4033343355166989E-2</v>
+      </c>
       <c r="CE104" s="41"/>
       <c r="CG104">
-        <v>48551296155</v>
+        <v>45735143263</v>
       </c>
       <c r="CH104">
-        <v>43882152115</v>
+        <v>42189141631</v>
       </c>
       <c r="CI104">
-        <v>53220440195</v>
+        <v>49281144894</v>
       </c>
       <c r="CJ104">
-        <v>41410456565</v>
+        <v>40312001757</v>
       </c>
       <c r="CK104">
-        <v>55692135745</v>
+        <v>51158284768</v>
       </c>
     </row>
     <row r="105" spans="75:89" x14ac:dyDescent="0.2">
       <c r="BY105" s="41"/>
       <c r="CE105" s="41"/>
       <c r="CG105">
-        <v>48785720289</v>
+        <v>45927998000</v>
       </c>
       <c r="CH105">
-        <v>43988262436</v>
+        <v>42259760194</v>
       </c>
       <c r="CI105">
-        <v>53583178143</v>
+        <v>49596235806</v>
       </c>
       <c r="CJ105">
-        <v>41448641655</v>
+        <v>40317912397</v>
       </c>
       <c r="CK105">
-        <v>56122798923</v>
+        <v>51538083603</v>
       </c>
     </row>
     <row r="106" spans="75:89" x14ac:dyDescent="0.2">
       <c r="BY106" s="41"/>
       <c r="CE106" s="41"/>
       <c r="CG106">
-        <v>49057130936</v>
+        <v>46223207434</v>
       </c>
       <c r="CH106">
-        <v>44130608744</v>
+        <v>42432194261</v>
       </c>
       <c r="CI106">
-        <v>53983653129</v>
+        <v>50014220606</v>
       </c>
       <c r="CJ106">
-        <v>41522665429</v>
+        <v>40425353112</v>
       </c>
       <c r="CK106">
-        <v>56591596444</v>
+        <v>52021061756</v>
       </c>
     </row>
     <row r="107" spans="75:89" x14ac:dyDescent="0.2">
       <c r="CE107" s="41"/>
       <c r="CG107">
-        <v>49357186096</v>
+        <v>46524480115</v>
       </c>
       <c r="CH107">
-        <v>44300841404</v>
+        <v>42610064557</v>
       </c>
       <c r="CI107">
-        <v>54413530788</v>
+        <v>50438895674</v>
       </c>
       <c r="CJ107">
-        <v>41624174210</v>
+        <v>40537898130</v>
       </c>
       <c r="CK107">
-        <v>57090197983</v>
+        <v>52511062101</v>
       </c>
     </row>
     <row r="108" spans="75:89" x14ac:dyDescent="0.2">
       <c r="CE108" s="41"/>
       <c r="CG108">
-        <v>49680351792</v>
+        <v>46852301108</v>
       </c>
       <c r="CH108">
-        <v>44479835201</v>
+        <v>42813832106</v>
       </c>
       <c r="CI108">
-        <v>54880868383</v>
+        <v>50890770110</v>
       </c>
       <c r="CJ108">
-        <v>41726848014</v>
+        <v>40675995753</v>
       </c>
       <c r="CK108">
-        <v>57633855570</v>
+        <v>53028606463</v>
       </c>
     </row>
     <row r="109" spans="75:89" x14ac:dyDescent="0.2">
       <c r="CE109" s="41"/>
       <c r="CG109">
-        <v>49972800738</v>
+        <v>47242897933</v>
       </c>
       <c r="CH109">
-        <v>44619787360</v>
+        <v>43079703555</v>
       </c>
       <c r="CI109">
-        <v>55325814116</v>
+        <v>51406092312</v>
       </c>
       <c r="CJ109">
-        <v>41786073249</v>
+        <v>40875841576</v>
       </c>
       <c r="CK109">
-        <v>58159528227</v>
+        <v>53609954291</v>
       </c>
     </row>
     <row r="110" spans="75:89" x14ac:dyDescent="0.2">
       <c r="CE110" s="41"/>
       <c r="CG110">
-        <v>50301969565</v>
+        <v>47613532435</v>
       </c>
       <c r="CH110">
-        <v>44793250947</v>
+        <v>43324922611</v>
       </c>
       <c r="CI110">
-        <v>55810688184</v>
+        <v>51902142259</v>
       </c>
       <c r="CJ110">
-        <v>41877111461</v>
+        <v>41054669706</v>
       </c>
       <c r="CK110">
-        <v>58726827670</v>
+        <v>54172395164</v>
       </c>
     </row>
     <row r="111" spans="75:89" x14ac:dyDescent="0.2">
       <c r="CE111" s="41"/>
       <c r="CG111">
-        <v>50592315729</v>
+        <v>47875283979</v>
       </c>
       <c r="CH111">
-        <v>44924768763</v>
+        <v>43460552883</v>
       </c>
       <c r="CI111">
-        <v>56259862695</v>
+        <v>52290015075</v>
       </c>
       <c r="CJ111">
-        <v>41924550629</v>
+        <v>41123535409</v>
       </c>
       <c r="CK111">
-        <v>59260080830</v>
+        <v>54627032549</v>
       </c>
     </row>
     <row r="112" spans="75:89" x14ac:dyDescent="0.2">
       <c r="CE112" s="41"/>
       <c r="CG112">
-        <v>50834232796</v>
+        <v>48223797474</v>
       </c>
       <c r="CH112">
-        <v>45004815533</v>
+        <v>43682225595</v>
       </c>
       <c r="CI112">
-        <v>56663650060</v>
+        <v>52765369352</v>
       </c>
       <c r="CJ112">
-        <v>41918908439</v>
+        <v>41278062667</v>
       </c>
       <c r="CK112">
-        <v>59749557154</v>
+        <v>55169532280</v>
       </c>
     </row>
     <row r="113" spans="83:89" x14ac:dyDescent="0.2">
       <c r="CE113" s="41"/>
       <c r="CG113">
-        <v>51108855143</v>
+        <v>48551296155</v>
       </c>
       <c r="CH113">
-        <v>45114602737</v>
+        <v>43882152115</v>
       </c>
       <c r="CI113">
-        <v>57103107549</v>
+        <v>53220440195</v>
       </c>
       <c r="CJ113">
-        <v>41941437189</v>
+        <v>41410456565</v>
       </c>
       <c r="CK113">
-        <v>60276273097</v>
+        <v>55692135745</v>
       </c>
     </row>
     <row r="114" spans="83:89" x14ac:dyDescent="0.2">
-      <c r="CE114" s="51"/>
       <c r="CG114">
+        <v>48785720289</v>
+      </c>
+      <c r="CH114">
+        <v>43988262436</v>
+      </c>
+      <c r="CI114">
+        <v>53583178143</v>
+      </c>
+      <c r="CJ114">
+        <v>41448641655</v>
+      </c>
+      <c r="CK114">
+        <v>56122798923</v>
+      </c>
+    </row>
+    <row r="115" spans="83:89" x14ac:dyDescent="0.2">
+      <c r="CG115">
+        <v>49057130936</v>
+      </c>
+      <c r="CH115">
+        <v>44130608744</v>
+      </c>
+      <c r="CI115">
+        <v>53983653129</v>
+      </c>
+      <c r="CJ115">
+        <v>41522665429</v>
+      </c>
+      <c r="CK115">
+        <v>56591596444</v>
+      </c>
+    </row>
+    <row r="116" spans="83:89" x14ac:dyDescent="0.2">
+      <c r="CG116">
+        <v>49357186096</v>
+      </c>
+      <c r="CH116">
+        <v>44300841404</v>
+      </c>
+      <c r="CI116">
+        <v>54413530788</v>
+      </c>
+      <c r="CJ116">
+        <v>41624174210</v>
+      </c>
+      <c r="CK116">
+        <v>57090197983</v>
+      </c>
+    </row>
+    <row r="117" spans="83:89" x14ac:dyDescent="0.2">
+      <c r="CG117">
+        <v>49680351792</v>
+      </c>
+      <c r="CH117">
+        <v>44479835201</v>
+      </c>
+      <c r="CI117">
+        <v>54880868383</v>
+      </c>
+      <c r="CJ117">
+        <v>41726848014</v>
+      </c>
+      <c r="CK117">
+        <v>57633855570</v>
+      </c>
+    </row>
+    <row r="118" spans="83:89" x14ac:dyDescent="0.2">
+      <c r="CG118">
+        <v>49972800738</v>
+      </c>
+      <c r="CH118">
+        <v>44619787360</v>
+      </c>
+      <c r="CI118">
+        <v>55325814116</v>
+      </c>
+      <c r="CJ118">
+        <v>41786073249</v>
+      </c>
+      <c r="CK118">
+        <v>58159528227</v>
+      </c>
+    </row>
+    <row r="119" spans="83:89" x14ac:dyDescent="0.2">
+      <c r="CG119">
+        <v>50301969565</v>
+      </c>
+      <c r="CH119">
+        <v>44793250947</v>
+      </c>
+      <c r="CI119">
+        <v>55810688184</v>
+      </c>
+      <c r="CJ119">
+        <v>41877111461</v>
+      </c>
+      <c r="CK119">
+        <v>58726827670</v>
+      </c>
+    </row>
+    <row r="120" spans="83:89" x14ac:dyDescent="0.2">
+      <c r="CG120">
+        <v>50592315729</v>
+      </c>
+      <c r="CH120">
+        <v>44924768763</v>
+      </c>
+      <c r="CI120">
+        <v>56259862695</v>
+      </c>
+      <c r="CJ120">
+        <v>41924550629</v>
+      </c>
+      <c r="CK120">
+        <v>59260080830</v>
+      </c>
+    </row>
+    <row r="121" spans="83:89" x14ac:dyDescent="0.2">
+      <c r="CG121">
+        <v>50834232796</v>
+      </c>
+      <c r="CH121">
+        <v>45004815533</v>
+      </c>
+      <c r="CI121">
+        <v>56663650060</v>
+      </c>
+      <c r="CJ121">
+        <v>41918908439</v>
+      </c>
+      <c r="CK121">
+        <v>59749557154</v>
+      </c>
+    </row>
+    <row r="122" spans="83:89" x14ac:dyDescent="0.2">
+      <c r="CG122">
+        <v>51108855143</v>
+      </c>
+      <c r="CH122">
+        <v>45114602737</v>
+      </c>
+      <c r="CI122">
+        <v>57103107549</v>
+      </c>
+      <c r="CJ122">
+        <v>41941437189</v>
+      </c>
+      <c r="CK122">
+        <v>60276273097</v>
+      </c>
+    </row>
+    <row r="123" spans="83:89" x14ac:dyDescent="0.2">
+      <c r="CG123">
         <v>51433764417</v>
       </c>
-      <c r="CH114">
+      <c r="CH123">
         <v>45271785233</v>
       </c>
-      <c r="CI114">
+      <c r="CI123">
         <v>57595743601</v>
       </c>
-      <c r="CJ114">
+      <c r="CJ123">
         <v>42009830493</v>
       </c>
-      <c r="CK114">
+      <c r="CK123">
         <v>60857698341</v>
+      </c>
+    </row>
+    <row r="141" spans="68:68" x14ac:dyDescent="0.2">
+      <c r="BP141" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C48:E48"/>
     <mergeCell ref="D25:E25"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
@@ -24007,23 +26054,33 @@
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C48:E48"/>
   </mergeCells>
-  <conditionalFormatting sqref="BX72:CA75">
+  <conditionalFormatting sqref="BX79:CA82">
     <cfRule type="cellIs" dxfId="3" priority="6" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BX79:CA82">
+  <conditionalFormatting sqref="BX86:CA89">
     <cfRule type="cellIs" dxfId="2" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BX86:CA89">
+  <conditionalFormatting sqref="BX93:CA96">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BX94:CA97">
+  <conditionalFormatting sqref="BX101:CA104">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -24059,11 +26116,11 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
       <c r="F2" s="3">
         <v>202401</v>
       </c>
@@ -24213,11 +26270,11 @@
       <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
       <c r="F3" s="5">
         <v>4615347507.3500004</v>
       </c>
@@ -24368,10 +26425,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="7"/>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="52"/>
+      <c r="E4" s="53"/>
       <c r="F4" s="8">
         <v>3129974914.75</v>
       </c>
@@ -25292,10 +27349,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="7"/>
-      <c r="D10" s="52" t="s">
+      <c r="D10" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="52"/>
+      <c r="E10" s="53"/>
       <c r="F10" s="8">
         <v>139544254.77000001</v>
       </c>
@@ -25446,10 +27503,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="7"/>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="52"/>
+      <c r="E11" s="53"/>
       <c r="F11" s="8">
         <v>152791256.61000001</v>
       </c>
@@ -25908,10 +27965,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="7"/>
-      <c r="D14" s="52" t="s">
+      <c r="D14" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="52"/>
+      <c r="E14" s="53"/>
       <c r="F14" s="8">
         <v>181065.89</v>
       </c>
@@ -26062,10 +28119,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="7"/>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="52"/>
+      <c r="E15" s="53"/>
       <c r="F15" s="8">
         <v>0</v>
       </c>
@@ -26216,10 +28273,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="7"/>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="52"/>
+      <c r="E16" s="53"/>
       <c r="F16" s="8">
         <v>14313311.48</v>
       </c>
@@ -26370,10 +28427,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="7"/>
-      <c r="D17" s="52" t="s">
+      <c r="D17" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="52"/>
+      <c r="E17" s="53"/>
       <c r="F17" s="8">
         <v>889652482.15999997</v>
       </c>
@@ -27294,10 +29351,10 @@
         <v>21</v>
       </c>
       <c r="C23" s="7"/>
-      <c r="D23" s="52" t="s">
+      <c r="D23" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="52"/>
+      <c r="E23" s="53"/>
       <c r="F23" s="8">
         <v>288890221.69</v>
       </c>
@@ -27447,11 +29504,11 @@
       <c r="B24" s="4">
         <v>22</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
       <c r="F24" s="5">
         <v>1371080141.25</v>
       </c>
@@ -27602,10 +29659,10 @@
         <v>23</v>
       </c>
       <c r="C25" s="12"/>
-      <c r="D25" s="52" t="s">
+      <c r="D25" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="52"/>
+      <c r="E25" s="53"/>
       <c r="F25" s="8">
         <v>725444512.70000005</v>
       </c>
@@ -28680,10 +30737,10 @@
         <v>30</v>
       </c>
       <c r="C32" s="12"/>
-      <c r="D32" s="52" t="s">
+      <c r="D32" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="52"/>
+      <c r="E32" s="53"/>
       <c r="F32" s="8">
         <v>138438409.96000001</v>
       </c>
@@ -28834,10 +30891,10 @@
         <v>31</v>
       </c>
       <c r="C33" s="12"/>
-      <c r="D33" s="52" t="s">
+      <c r="D33" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="52"/>
+      <c r="E33" s="53"/>
       <c r="F33" s="8">
         <v>27942286.579999998</v>
       </c>
@@ -28988,10 +31045,10 @@
         <v>32</v>
       </c>
       <c r="C34" s="12"/>
-      <c r="D34" s="52" t="s">
+      <c r="D34" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="52"/>
+      <c r="E34" s="53"/>
       <c r="F34" s="8">
         <v>2674984.7799999998</v>
       </c>
@@ -29142,10 +31199,10 @@
         <v>33</v>
       </c>
       <c r="C35" s="12"/>
-      <c r="D35" s="52" t="s">
+      <c r="D35" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="52"/>
+      <c r="E35" s="53"/>
       <c r="F35" s="15">
         <v>476579947.23000002</v>
       </c>
@@ -30739,11 +32796,11 @@
       <c r="B46" s="4">
         <v>44</v>
       </c>
-      <c r="C46" s="55" t="s">
+      <c r="C46" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="55"/>
-      <c r="E46" s="55"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="52"/>
       <c r="F46" s="5">
         <v>3244267366.0999999</v>
       </c>
@@ -30951,11 +33008,11 @@
       <c r="B48" s="4">
         <v>46</v>
       </c>
-      <c r="C48" s="56" t="s">
+      <c r="C48" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
       <c r="F48" s="20">
         <v>3244267366.0999999</v>
       </c>
@@ -31163,11 +33220,11 @@
       <c r="B50" s="4">
         <v>48</v>
       </c>
-      <c r="C50" s="56" t="s">
+      <c r="C50" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="D50" s="56"/>
-      <c r="E50" s="56"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="51"/>
       <c r="F50" s="20">
         <v>3244267366.0999999</v>
       </c>
@@ -31316,6 +33373,12 @@
     <row r="51" spans="2:53" s="1" customFormat="1" ht="28.7" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="D4:E4"/>
     <mergeCell ref="C50:E50"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
@@ -31329,12 +33392,6 @@
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D35:E35"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -31368,11 +33425,11 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
       <c r="F2" s="3">
         <v>201901</v>
       </c>
@@ -31570,11 +33627,11 @@
       <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
       <c r="F3" s="5">
         <v>2615228599.48</v>
       </c>
@@ -31773,10 +33830,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="7"/>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="52"/>
+      <c r="E4" s="53"/>
       <c r="F4" s="8">
         <v>1867686994.49</v>
       </c>
@@ -32985,10 +35042,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="7"/>
-      <c r="D10" s="52" t="s">
+      <c r="D10" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="52"/>
+      <c r="E10" s="53"/>
       <c r="F10" s="8">
         <v>99153847.969999999</v>
       </c>
@@ -33187,10 +35244,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="7"/>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="52"/>
+      <c r="E11" s="53"/>
       <c r="F11" s="8">
         <v>11535985.5</v>
       </c>
@@ -33793,10 +35850,10 @@
         <v>12</v>
       </c>
       <c r="C14" s="7"/>
-      <c r="D14" s="52" t="s">
+      <c r="D14" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="52"/>
+      <c r="E14" s="53"/>
       <c r="F14" s="8">
         <v>0</v>
       </c>
@@ -33995,10 +36052,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="7"/>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="52"/>
+      <c r="E15" s="53"/>
       <c r="F15" s="8">
         <v>0</v>
       </c>
@@ -34197,10 +36254,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="7"/>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="52"/>
+      <c r="E16" s="53"/>
       <c r="F16" s="8">
         <v>72367508.560000002</v>
       </c>
@@ -34399,10 +36456,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="7"/>
-      <c r="D17" s="52" t="s">
+      <c r="D17" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="52"/>
+      <c r="E17" s="53"/>
       <c r="F17" s="8">
         <v>491782470.01999998</v>
       </c>
@@ -35611,10 +37668,10 @@
         <v>21</v>
       </c>
       <c r="C23" s="7"/>
-      <c r="D23" s="52" t="s">
+      <c r="D23" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="52"/>
+      <c r="E23" s="53"/>
       <c r="F23" s="8">
         <v>72701792.939999998</v>
       </c>
@@ -35812,11 +37869,11 @@
       <c r="B24" s="4">
         <v>22</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
       <c r="F24" s="5">
         <v>752001511.88999999</v>
       </c>
@@ -36015,10 +38072,10 @@
         <v>23</v>
       </c>
       <c r="C25" s="12"/>
-      <c r="D25" s="52" t="s">
+      <c r="D25" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="52"/>
+      <c r="E25" s="53"/>
       <c r="F25" s="8">
         <v>382257583.66000003</v>
       </c>
@@ -37347,10 +39404,10 @@
         <v>30</v>
       </c>
       <c r="C32" s="12"/>
-      <c r="D32" s="52" t="s">
+      <c r="D32" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="52"/>
+      <c r="E32" s="53"/>
       <c r="F32" s="8">
         <v>98620408.819999993</v>
       </c>
@@ -37549,10 +39606,10 @@
         <v>31</v>
       </c>
       <c r="C33" s="12"/>
-      <c r="D33" s="52" t="s">
+      <c r="D33" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="52"/>
+      <c r="E33" s="53"/>
       <c r="F33" s="8">
         <v>1552979.09</v>
       </c>
@@ -37751,10 +39808,10 @@
         <v>32</v>
       </c>
       <c r="C34" s="12"/>
-      <c r="D34" s="52" t="s">
+      <c r="D34" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="52"/>
+      <c r="E34" s="53"/>
       <c r="F34" s="8">
         <v>0</v>
       </c>
@@ -37953,10 +40010,10 @@
         <v>33</v>
       </c>
       <c r="C35" s="12"/>
-      <c r="D35" s="52" t="s">
+      <c r="D35" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="52"/>
+      <c r="E35" s="53"/>
       <c r="F35" s="15">
         <v>269570540.31999999</v>
       </c>
@@ -40024,11 +42081,11 @@
       <c r="B46" s="4">
         <v>44</v>
       </c>
-      <c r="C46" s="55" t="s">
+      <c r="C46" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="D46" s="55"/>
-      <c r="E46" s="55"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="52"/>
       <c r="F46" s="5">
         <v>1863227087.5899999</v>
       </c>
@@ -40420,11 +42477,11 @@
       <c r="B48" s="4">
         <v>46</v>
       </c>
-      <c r="C48" s="56" t="s">
+      <c r="C48" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
       <c r="F48" s="20">
         <v>1863227087.5899999</v>
       </c>
@@ -40816,11 +42873,11 @@
       <c r="B50" s="4">
         <v>48</v>
       </c>
-      <c r="C50" s="56" t="s">
+      <c r="C50" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="D50" s="56"/>
-      <c r="E50" s="56"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="51"/>
       <c r="F50" s="20">
         <v>1863227087.5899999</v>
       </c>
@@ -41076,6 +43133,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="D4:E4"/>
     <mergeCell ref="C50:E50"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
@@ -41089,12 +43152,6 @@
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D35:E35"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait"/>
